--- a/HR Department/STAFF-ROASTER.xlsx
+++ b/HR Department/STAFF-ROASTER.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,14 @@
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet9" sheetId="10" r:id="rId9"/>
     <sheet name="Sheet10" sheetId="9" r:id="rId10"/>
+    <sheet name="Bahadur Attend" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="37">
   <si>
     <t>Nursing Staff</t>
   </si>
@@ -70,33 +71,6 @@
   </si>
   <si>
     <t>Remarks</t>
-  </si>
-  <si>
-    <t>Manish Lakhara</t>
-  </si>
-  <si>
-    <t>Pradeep Gagri</t>
-  </si>
-  <si>
-    <t>Babu Lal</t>
-  </si>
-  <si>
-    <t>Pooja Nayak</t>
-  </si>
-  <si>
-    <t>Devraj Gurjar</t>
-  </si>
-  <si>
-    <t>Moh. Azhar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kishan </t>
-  </si>
-  <si>
-    <t>Ranjeet Singh</t>
-  </si>
-  <si>
-    <t>Maya Lohar</t>
   </si>
   <si>
     <t>Ward-Lady</t>
@@ -143,24 +117,44 @@
   <si>
     <t>Swasthya Margdarshak</t>
   </si>
+  <si>
+    <t>Out</t>
+  </si>
+  <si>
+    <t>WH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>0022</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>Sweeper</t>
+  </si>
+  <si>
+    <t>Back Office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-14009]dd\ mmmm\ yyyy;@"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-14009]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color rgb="FF000000"/>
-      <name val="Algerian"/>
     </font>
     <font>
       <sz val="11"/>
@@ -206,6 +200,27 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Algerian"/>
+      <family val="5"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -215,7 +230,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -275,15 +290,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -296,76 +373,127 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,7 +805,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,92 +819,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="2" spans="1:6" ht="5.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="43">
         <v>45717</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="17" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D4" s="17"/>
-      <c r="E4" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="21"/>
+      <c r="E4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="23"/>
+      <c r="A5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="12"/>
       <c r="C5" s="17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D5" s="18"/>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>29</v>
+      <c r="F5" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="10" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1152,15 +1280,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:F3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.39" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="95" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -1174,8 +1302,8 @@
   </sheetPr>
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,91 +1322,95 @@
     <col min="12" max="12" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="15"/>
-    </row>
-    <row r="2" spans="1:6" ht="18.600000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="1" spans="1:6" ht="18.600000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
+    </row>
+    <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
+    </row>
+    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40">
+        <v>45717</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
     </row>
     <row r="4" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="28" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="26"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="20"/>
+      <c r="A5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="9"/>
       <c r="C5" s="17" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D5" s="18"/>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>27</v>
+      <c r="F5" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="10" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1653,16 +1785,571 @@
       <c r="F38" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A2:F3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="92" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I38"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" customWidth="1"/>
+    <col min="13" max="13" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.600000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38">
+        <v>45717</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+    </row>
+    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45717</v>
+      </c>
+      <c r="C8" s="24">
+        <v>0.4375</v>
+      </c>
+      <c r="D8" s="24">
+        <v>0.7909722222222223</v>
+      </c>
+      <c r="E8" s="26" t="str">
+        <f>TEXT(D8 - C8 - TIME(0,0,0), "hh:mm")</f>
+        <v>08:29</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45718</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45719</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45720</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45721</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45722</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45723</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1">
+        <v>45724</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1">
+        <v>45725</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1">
+        <v>45726</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>11</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45727</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>12</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45728</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>13</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45729</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45730</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>15</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45731</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45732</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>17</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45733</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>18</v>
+      </c>
+      <c r="B25" s="1">
+        <v>45734</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>19</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45735</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>20</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45736</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>21</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45737</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>22</v>
+      </c>
+      <c r="B29" s="1">
+        <v>45738</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>23</v>
+      </c>
+      <c r="B30" s="1">
+        <v>45739</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>24</v>
+      </c>
+      <c r="B31" s="1">
+        <v>45740</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>25</v>
+      </c>
+      <c r="B32" s="1">
+        <v>45741</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>26</v>
+      </c>
+      <c r="B33" s="1">
+        <v>45742</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>27</v>
+      </c>
+      <c r="B34" s="1">
+        <v>45743</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>28</v>
+      </c>
+      <c r="B35" s="1">
+        <v>45744</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>29</v>
+      </c>
+      <c r="B36" s="1">
+        <v>45745</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>30</v>
+      </c>
+      <c r="B37" s="1">
+        <v>45746</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>31</v>
+      </c>
+      <c r="B38" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="92" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -1677,7 +2364,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1691,92 +2378,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="2" spans="1:6" ht="18.600000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="43">
         <v>45717</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
     </row>
     <row r="4" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="21"/>
-    </row>
-    <row r="5" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="17" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D5" s="18"/>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>30</v>
+      <c r="F5" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="10" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -2152,15 +2839,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:F3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="92" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -2175,7 +2862,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2189,92 +2876,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="2" spans="1:6" ht="18.600000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="43">
         <v>45717</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
     </row>
     <row r="4" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="17" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D4" s="17"/>
-      <c r="E4" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="21"/>
+      <c r="E4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="10" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -2650,15 +3337,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:F3"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="92" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -2673,7 +3360,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2687,92 +3374,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="2" spans="1:6" ht="18.600000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="43">
         <v>45717</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
     </row>
     <row r="4" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="21"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="10" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -3148,15 +3835,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:F3"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="92" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -3171,7 +3858,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3185,92 +3872,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="2" spans="1:6" ht="18.600000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="43">
         <v>45717</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
     </row>
     <row r="4" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="20" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="21"/>
-    </row>
-    <row r="5" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="17" t="s">
-        <v>35</v>
-      </c>
       <c r="D5" s="18"/>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>34</v>
+      <c r="F5" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="10" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -3646,15 +4333,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:F3"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="92" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -3669,7 +4356,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3683,92 +4370,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="2" spans="1:6" ht="18.600000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="43">
         <v>45717</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
     </row>
     <row r="4" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="17" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D4" s="17"/>
-      <c r="E4" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="21"/>
+      <c r="E4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="23"/>
+      <c r="A5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="12"/>
       <c r="C5" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="18"/>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>27</v>
+      <c r="F5" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="10" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -4144,15 +4831,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:F3"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="92" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -4167,7 +4854,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4181,92 +4868,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="2" spans="1:6" ht="18.600000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="43">
         <v>45717</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
     </row>
     <row r="4" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="17" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D4" s="17"/>
-      <c r="E4" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="21"/>
+      <c r="E4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="23"/>
+      <c r="A5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="12"/>
       <c r="C5" s="17" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D5" s="18"/>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>27</v>
+      <c r="F5" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="10" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -4642,15 +5329,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:F3"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="95" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -4665,7 +5352,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4679,92 +5366,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="2" spans="1:6" ht="18.600000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="43">
         <v>45717</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
     </row>
     <row r="4" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="17" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D4" s="17"/>
-      <c r="E4" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="21"/>
+      <c r="E4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="20"/>
+      <c r="A5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="9"/>
       <c r="C5" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="18"/>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>27</v>
+      <c r="F5" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="10" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -5140,15 +5827,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:F3"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="92" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -5163,7 +5850,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5177,92 +5864,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="2" spans="1:6" ht="18.600000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="43">
         <v>45717</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
     </row>
     <row r="4" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="17" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D4" s="17"/>
-      <c r="E4" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="21"/>
+      <c r="E4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="23"/>
+      <c r="A5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="12"/>
       <c r="C5" s="17" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D5" s="18"/>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>23</v>
+      <c r="F5" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="10" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -5638,15 +6325,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:F3"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="92" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/HR Department/STAFF-ROASTER.xlsx
+++ b/HR Department/STAFF-ROASTER.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="39">
   <si>
     <t>Nursing Staff</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>Ward-Lady</t>
-  </si>
-  <si>
     <t>Designation</t>
   </si>
   <si>
@@ -85,28 +82,13 @@
     <t>Employee Code</t>
   </si>
   <si>
-    <t>Nursing</t>
-  </si>
-  <si>
     <t>Radiographer</t>
-  </si>
-  <si>
-    <t>Radiology</t>
-  </si>
-  <si>
-    <t>Pharmacy</t>
   </si>
   <si>
     <t xml:space="preserve">Pharmacists </t>
   </si>
   <si>
     <t xml:space="preserve">Receptionist </t>
-  </si>
-  <si>
-    <t>Front Office</t>
-  </si>
-  <si>
-    <t>O.T</t>
   </si>
   <si>
     <t>O.T. Assistant</t>
@@ -130,16 +112,40 @@
     <t>0022</t>
   </si>
   <si>
-    <t>HK</t>
-  </si>
-  <si>
     <t>Sweeper</t>
   </si>
   <si>
     <t>Back Office</t>
   </si>
   <si>
-    <t xml:space="preserve">   </t>
+    <t>Manish Lakhara</t>
+  </si>
+  <si>
+    <t>Pradeep Gadri</t>
+  </si>
+  <si>
+    <t>Babu Lal</t>
+  </si>
+  <si>
+    <t>Devraj Gurjar</t>
+  </si>
+  <si>
+    <t>Maya Lohar</t>
+  </si>
+  <si>
+    <t>Kishan</t>
+  </si>
+  <si>
+    <t>Moh. Azhar</t>
+  </si>
+  <si>
+    <t>Anil Dhaker</t>
+  </si>
+  <si>
+    <t>Suman Lohar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orthopedic </t>
   </si>
 </sst>
 </file>
@@ -148,9 +154,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-14009]dd\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -220,6 +226,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -356,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -387,13 +400,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -402,34 +409,7 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -437,6 +417,42 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -456,8 +472,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -468,32 +496,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -804,8 +829,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,99 +844,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43">
-        <v>45717</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45"/>
+      <c r="A3" s="22">
+        <v>45778</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="9" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="26"/>
+      <c r="E6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>45717</v>
+        <v>45778</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -923,7 +948,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="1">
-        <v>45718</v>
+        <v>45779</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -935,7 +960,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>45719</v>
+        <v>45780</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -947,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1">
-        <v>45720</v>
+        <v>45781</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -959,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="1">
-        <v>45721</v>
+        <v>45782</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -971,7 +996,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="1">
-        <v>45722</v>
+        <v>45783</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -983,7 +1008,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="1">
-        <v>45723</v>
+        <v>45784</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -995,7 +1020,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="1">
-        <v>45724</v>
+        <v>45785</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1007,7 +1032,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="1">
-        <v>45725</v>
+        <v>45786</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1019,7 +1044,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="1">
-        <v>45726</v>
+        <v>45787</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1031,7 +1056,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="1">
-        <v>45727</v>
+        <v>45788</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1043,7 +1068,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="1">
-        <v>45728</v>
+        <v>45789</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1055,7 +1080,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="1">
-        <v>45729</v>
+        <v>45790</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1067,7 +1092,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="1">
-        <v>45730</v>
+        <v>45791</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1079,7 +1104,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="1">
-        <v>45731</v>
+        <v>45792</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1091,7 +1116,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="1">
-        <v>45732</v>
+        <v>45793</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1103,7 +1128,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="1">
-        <v>45733</v>
+        <v>45794</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1115,7 +1140,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="1">
-        <v>45734</v>
+        <v>45795</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1127,7 +1152,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="1">
-        <v>45735</v>
+        <v>45796</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1139,7 +1164,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="1">
-        <v>45736</v>
+        <v>45797</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1151,7 +1176,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="1">
-        <v>45737</v>
+        <v>45798</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1163,7 +1188,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="1">
-        <v>45738</v>
+        <v>45799</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1175,7 +1200,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="1">
-        <v>45739</v>
+        <v>45800</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1187,7 +1212,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="1">
-        <v>45740</v>
+        <v>45801</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1199,7 +1224,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="1">
-        <v>45741</v>
+        <v>45802</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1211,7 +1236,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="1">
-        <v>45742</v>
+        <v>45803</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1223,7 +1248,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="1">
-        <v>45743</v>
+        <v>45804</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1235,7 +1260,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="1">
-        <v>45744</v>
+        <v>45805</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1247,7 +1272,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="1">
-        <v>45745</v>
+        <v>45806</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1259,7 +1284,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="1">
-        <v>45746</v>
+        <v>45807</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1271,7 +1296,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="1">
-        <v>45747</v>
+        <v>45808</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1302,8 +1327,8 @@
   </sheetPr>
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,101 +1348,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.600000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40">
-        <v>45717</v>
-      </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42"/>
+      <c r="A3" s="34">
+        <v>45778</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>32</v>
+      <c r="B4" s="38"/>
+      <c r="C4" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="18"/>
+        <v>14</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="19"/>
       <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="26"/>
+      <c r="E6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>45717</v>
+        <v>45778</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1429,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="1">
-        <v>45718</v>
+        <v>45779</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1441,7 +1466,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>45719</v>
+        <v>45780</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1453,7 +1478,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1">
-        <v>45720</v>
+        <v>45781</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1465,7 +1490,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="1">
-        <v>45721</v>
+        <v>45782</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1477,7 +1502,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="1">
-        <v>45722</v>
+        <v>45783</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1489,7 +1514,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="1">
-        <v>45723</v>
+        <v>45784</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1501,7 +1526,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="1">
-        <v>45724</v>
+        <v>45785</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1513,7 +1538,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="1">
-        <v>45725</v>
+        <v>45786</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1525,7 +1550,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="1">
-        <v>45726</v>
+        <v>45787</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1537,7 +1562,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="1">
-        <v>45727</v>
+        <v>45788</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1549,7 +1574,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="1">
-        <v>45728</v>
+        <v>45789</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1561,7 +1586,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="1">
-        <v>45729</v>
+        <v>45790</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1573,7 +1598,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="1">
-        <v>45730</v>
+        <v>45791</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1585,7 +1610,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="1">
-        <v>45731</v>
+        <v>45792</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1597,7 +1622,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="1">
-        <v>45732</v>
+        <v>45793</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1609,7 +1634,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="1">
-        <v>45733</v>
+        <v>45794</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1621,7 +1646,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="1">
-        <v>45734</v>
+        <v>45795</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1633,7 +1658,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="1">
-        <v>45735</v>
+        <v>45796</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1645,7 +1670,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="1">
-        <v>45736</v>
+        <v>45797</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1657,7 +1682,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="1">
-        <v>45737</v>
+        <v>45798</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1669,7 +1694,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="1">
-        <v>45738</v>
+        <v>45799</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1681,7 +1706,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="1">
-        <v>45739</v>
+        <v>45800</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1693,7 +1718,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="1">
-        <v>45740</v>
+        <v>45801</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1705,7 +1730,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="1">
-        <v>45741</v>
+        <v>45802</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1717,7 +1742,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="1">
-        <v>45742</v>
+        <v>45803</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1729,7 +1754,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="1">
-        <v>45743</v>
+        <v>45804</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1741,7 +1766,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="1">
-        <v>45744</v>
+        <v>45805</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1753,7 +1778,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="1">
-        <v>45745</v>
+        <v>45806</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1765,7 +1790,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="1">
-        <v>45746</v>
+        <v>45807</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1777,7 +1802,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="1">
-        <v>45747</v>
+        <v>45808</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1786,6 +1811,8 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:F3"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="C4:D4"/>
@@ -1794,8 +1821,6 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="92" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -1810,7 +1835,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:E5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1830,101 +1855,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:7" ht="18.600000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38">
+      <c r="A2" s="42">
         <v>45717</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
     </row>
     <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="13"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
+      <c r="C5" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
       <c r="F5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="15" t="s">
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+        <v>24</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1933,13 +1958,13 @@
       <c r="B8" s="1">
         <v>45717</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="13">
         <v>0.4375</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="13">
         <v>0.7909722222222223</v>
       </c>
-      <c r="E8" s="26" t="str">
+      <c r="E8" s="15" t="str">
         <f>TEXT(D8 - C8 - TIME(0,0,0), "hh:mm")</f>
         <v>08:29</v>
       </c>
@@ -1968,8 +1993,8 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="25" t="s">
-        <v>31</v>
+      <c r="E10" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -2352,7 +2377,7 @@
     <mergeCell ref="G6:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="92" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2363,8 +2388,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2378,99 +2403,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43">
-        <v>45717</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45"/>
+      <c r="A3" s="22">
+        <v>45778</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
     </row>
     <row r="4" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="10"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="18"/>
+      <c r="A5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="19"/>
       <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="26"/>
+      <c r="E6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>45717</v>
+        <v>45778</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2482,7 +2507,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="1">
-        <v>45718</v>
+        <v>45779</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2494,7 +2519,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>45719</v>
+        <v>45780</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -2506,7 +2531,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1">
-        <v>45720</v>
+        <v>45781</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2518,7 +2543,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="1">
-        <v>45721</v>
+        <v>45782</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2530,7 +2555,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="1">
-        <v>45722</v>
+        <v>45783</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2542,7 +2567,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="1">
-        <v>45723</v>
+        <v>45784</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -2554,7 +2579,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="1">
-        <v>45724</v>
+        <v>45785</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2566,7 +2591,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="1">
-        <v>45725</v>
+        <v>45786</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2578,7 +2603,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="1">
-        <v>45726</v>
+        <v>45787</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -2590,7 +2615,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="1">
-        <v>45727</v>
+        <v>45788</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -2602,7 +2627,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="1">
-        <v>45728</v>
+        <v>45789</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -2614,7 +2639,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="1">
-        <v>45729</v>
+        <v>45790</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -2626,7 +2651,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="1">
-        <v>45730</v>
+        <v>45791</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -2638,7 +2663,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="1">
-        <v>45731</v>
+        <v>45792</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -2650,7 +2675,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="1">
-        <v>45732</v>
+        <v>45793</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2662,7 +2687,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="1">
-        <v>45733</v>
+        <v>45794</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2674,7 +2699,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="1">
-        <v>45734</v>
+        <v>45795</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2686,7 +2711,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="1">
-        <v>45735</v>
+        <v>45796</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2698,7 +2723,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="1">
-        <v>45736</v>
+        <v>45797</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -2710,7 +2735,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="1">
-        <v>45737</v>
+        <v>45798</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -2722,7 +2747,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="1">
-        <v>45738</v>
+        <v>45799</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -2734,7 +2759,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="1">
-        <v>45739</v>
+        <v>45800</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -2746,7 +2771,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="1">
-        <v>45740</v>
+        <v>45801</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -2758,7 +2783,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="1">
-        <v>45741</v>
+        <v>45802</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2770,7 +2795,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="1">
-        <v>45742</v>
+        <v>45803</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -2782,7 +2807,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="1">
-        <v>45743</v>
+        <v>45804</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -2794,7 +2819,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="1">
-        <v>45744</v>
+        <v>45805</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2806,7 +2831,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="1">
-        <v>45745</v>
+        <v>45806</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2818,7 +2843,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="1">
-        <v>45746</v>
+        <v>45807</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2830,7 +2855,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="1">
-        <v>45747</v>
+        <v>45808</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2861,8 +2886,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2876,99 +2901,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43">
-        <v>45717</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45"/>
+      <c r="A3" s="22">
+        <v>45778</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
     </row>
     <row r="4" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="10"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="18"/>
+      <c r="A5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="19"/>
       <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="26"/>
+      <c r="E6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>45717</v>
+        <v>45778</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2980,7 +3005,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="1">
-        <v>45718</v>
+        <v>45779</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2992,7 +3017,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>45719</v>
+        <v>45780</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -3004,7 +3029,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1">
-        <v>45720</v>
+        <v>45781</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -3016,7 +3041,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="1">
-        <v>45721</v>
+        <v>45782</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -3028,7 +3053,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="1">
-        <v>45722</v>
+        <v>45783</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -3040,7 +3065,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="1">
-        <v>45723</v>
+        <v>45784</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -3052,7 +3077,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="1">
-        <v>45724</v>
+        <v>45785</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -3064,7 +3089,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="1">
-        <v>45725</v>
+        <v>45786</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -3076,7 +3101,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="1">
-        <v>45726</v>
+        <v>45787</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -3088,7 +3113,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="1">
-        <v>45727</v>
+        <v>45788</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -3100,7 +3125,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="1">
-        <v>45728</v>
+        <v>45789</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -3112,7 +3137,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="1">
-        <v>45729</v>
+        <v>45790</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -3124,7 +3149,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="1">
-        <v>45730</v>
+        <v>45791</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -3136,7 +3161,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="1">
-        <v>45731</v>
+        <v>45792</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -3148,7 +3173,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="1">
-        <v>45732</v>
+        <v>45793</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -3160,7 +3185,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="1">
-        <v>45733</v>
+        <v>45794</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3172,7 +3197,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="1">
-        <v>45734</v>
+        <v>45795</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -3184,7 +3209,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="1">
-        <v>45735</v>
+        <v>45796</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -3196,7 +3221,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="1">
-        <v>45736</v>
+        <v>45797</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -3208,7 +3233,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="1">
-        <v>45737</v>
+        <v>45798</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -3220,7 +3245,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="1">
-        <v>45738</v>
+        <v>45799</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -3232,7 +3257,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="1">
-        <v>45739</v>
+        <v>45800</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -3244,7 +3269,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="1">
-        <v>45740</v>
+        <v>45801</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3256,7 +3281,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="1">
-        <v>45741</v>
+        <v>45802</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -3268,7 +3293,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="1">
-        <v>45742</v>
+        <v>45803</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -3280,7 +3305,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="1">
-        <v>45743</v>
+        <v>45804</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -3292,7 +3317,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="1">
-        <v>45744</v>
+        <v>45805</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -3304,7 +3329,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="1">
-        <v>45745</v>
+        <v>45806</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -3316,7 +3341,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="1">
-        <v>45746</v>
+        <v>45807</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -3328,7 +3353,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="1">
-        <v>45747</v>
+        <v>45808</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -3359,8 +3384,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3374,99 +3399,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43">
-        <v>45717</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45"/>
+      <c r="A3" s="22">
+        <v>45778</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
     </row>
     <row r="4" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" s="20"/>
-      <c r="E4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="10"/>
+      <c r="E4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="18"/>
+      <c r="A5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="19"/>
       <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="26"/>
+      <c r="E6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>45717</v>
+        <v>45778</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -3478,7 +3503,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="1">
-        <v>45718</v>
+        <v>45779</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -3490,7 +3515,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>45719</v>
+        <v>45780</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -3502,7 +3527,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1">
-        <v>45720</v>
+        <v>45781</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -3514,7 +3539,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="1">
-        <v>45721</v>
+        <v>45782</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -3526,7 +3551,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="1">
-        <v>45722</v>
+        <v>45783</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -3538,7 +3563,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="1">
-        <v>45723</v>
+        <v>45784</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -3550,7 +3575,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="1">
-        <v>45724</v>
+        <v>45785</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -3562,7 +3587,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="1">
-        <v>45725</v>
+        <v>45786</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -3574,7 +3599,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="1">
-        <v>45726</v>
+        <v>45787</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -3586,7 +3611,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="1">
-        <v>45727</v>
+        <v>45788</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -3598,7 +3623,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="1">
-        <v>45728</v>
+        <v>45789</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -3610,7 +3635,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="1">
-        <v>45729</v>
+        <v>45790</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -3622,7 +3647,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="1">
-        <v>45730</v>
+        <v>45791</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -3634,7 +3659,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="1">
-        <v>45731</v>
+        <v>45792</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -3646,7 +3671,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="1">
-        <v>45732</v>
+        <v>45793</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -3658,7 +3683,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="1">
-        <v>45733</v>
+        <v>45794</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3670,7 +3695,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="1">
-        <v>45734</v>
+        <v>45795</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -3682,7 +3707,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="1">
-        <v>45735</v>
+        <v>45796</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -3694,7 +3719,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="1">
-        <v>45736</v>
+        <v>45797</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -3706,7 +3731,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="1">
-        <v>45737</v>
+        <v>45798</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -3718,7 +3743,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="1">
-        <v>45738</v>
+        <v>45799</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -3730,7 +3755,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="1">
-        <v>45739</v>
+        <v>45800</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -3742,7 +3767,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="1">
-        <v>45740</v>
+        <v>45801</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3754,7 +3779,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="1">
-        <v>45741</v>
+        <v>45802</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -3766,7 +3791,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="1">
-        <v>45742</v>
+        <v>45803</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -3778,7 +3803,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="1">
-        <v>45743</v>
+        <v>45804</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -3790,7 +3815,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="1">
-        <v>45744</v>
+        <v>45805</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -3802,7 +3827,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="1">
-        <v>45745</v>
+        <v>45806</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -3814,7 +3839,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="1">
-        <v>45746</v>
+        <v>45807</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -3826,7 +3851,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="1">
-        <v>45747</v>
+        <v>45808</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -3853,12 +3878,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3872,99 +3898,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43">
-        <v>45717</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45"/>
+      <c r="A3" s="22">
+        <v>45748</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
     </row>
     <row r="4" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D4" s="20"/>
-      <c r="E4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="10"/>
+      <c r="E4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="18"/>
+      <c r="A5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="19"/>
       <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="26"/>
+      <c r="E6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>45717</v>
+        <v>45778</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -3976,7 +4002,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="1">
-        <v>45718</v>
+        <v>45779</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -3988,7 +4014,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>45719</v>
+        <v>45780</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -4000,7 +4026,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1">
-        <v>45720</v>
+        <v>45781</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -4012,7 +4038,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="1">
-        <v>45721</v>
+        <v>45782</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -4024,7 +4050,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="1">
-        <v>45722</v>
+        <v>45783</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -4036,7 +4062,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="1">
-        <v>45723</v>
+        <v>45784</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -4048,7 +4074,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="1">
-        <v>45724</v>
+        <v>45785</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -4060,7 +4086,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="1">
-        <v>45725</v>
+        <v>45786</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -4072,7 +4098,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="1">
-        <v>45726</v>
+        <v>45787</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -4084,7 +4110,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="1">
-        <v>45727</v>
+        <v>45788</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -4096,7 +4122,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="1">
-        <v>45728</v>
+        <v>45789</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -4108,7 +4134,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="1">
-        <v>45729</v>
+        <v>45790</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -4120,7 +4146,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="1">
-        <v>45730</v>
+        <v>45791</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -4132,7 +4158,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="1">
-        <v>45731</v>
+        <v>45792</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -4144,7 +4170,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="1">
-        <v>45732</v>
+        <v>45793</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -4156,7 +4182,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="1">
-        <v>45733</v>
+        <v>45794</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -4168,7 +4194,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="1">
-        <v>45734</v>
+        <v>45795</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -4180,7 +4206,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="1">
-        <v>45735</v>
+        <v>45796</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -4192,7 +4218,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="1">
-        <v>45736</v>
+        <v>45797</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -4204,7 +4230,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="1">
-        <v>45737</v>
+        <v>45798</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -4216,7 +4242,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="1">
-        <v>45738</v>
+        <v>45799</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -4228,7 +4254,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="1">
-        <v>45739</v>
+        <v>45800</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -4240,7 +4266,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="1">
-        <v>45740</v>
+        <v>45801</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -4252,7 +4278,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="1">
-        <v>45741</v>
+        <v>45802</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -4264,7 +4290,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="1">
-        <v>45742</v>
+        <v>45803</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -4276,7 +4302,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="1">
-        <v>45743</v>
+        <v>45804</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -4288,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="1">
-        <v>45744</v>
+        <v>45805</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -4300,7 +4326,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="1">
-        <v>45745</v>
+        <v>45806</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -4312,7 +4338,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="1">
-        <v>45746</v>
+        <v>45807</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -4324,7 +4350,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="1">
-        <v>45747</v>
+        <v>45808</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -4355,8 +4381,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4370,99 +4396,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43">
-        <v>45717</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45"/>
+      <c r="A3" s="22">
+        <v>45778</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
     </row>
     <row r="4" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="10"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="17" t="s">
+      <c r="A5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="26"/>
+      <c r="E6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>45717</v>
+        <v>45778</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -4474,7 +4500,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="1">
-        <v>45718</v>
+        <v>45779</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -4486,7 +4512,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>45719</v>
+        <v>45780</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -4498,7 +4524,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1">
-        <v>45720</v>
+        <v>45781</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -4510,7 +4536,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="1">
-        <v>45721</v>
+        <v>45782</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -4522,7 +4548,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="1">
-        <v>45722</v>
+        <v>45783</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -4534,7 +4560,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="1">
-        <v>45723</v>
+        <v>45784</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -4546,7 +4572,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="1">
-        <v>45724</v>
+        <v>45785</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -4558,7 +4584,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="1">
-        <v>45725</v>
+        <v>45786</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -4570,7 +4596,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="1">
-        <v>45726</v>
+        <v>45787</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -4582,7 +4608,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="1">
-        <v>45727</v>
+        <v>45788</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -4594,7 +4620,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="1">
-        <v>45728</v>
+        <v>45789</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -4606,7 +4632,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="1">
-        <v>45729</v>
+        <v>45790</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -4618,7 +4644,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="1">
-        <v>45730</v>
+        <v>45791</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -4630,7 +4656,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="1">
-        <v>45731</v>
+        <v>45792</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -4642,7 +4668,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="1">
-        <v>45732</v>
+        <v>45793</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -4654,7 +4680,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="1">
-        <v>45733</v>
+        <v>45794</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -4666,7 +4692,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="1">
-        <v>45734</v>
+        <v>45795</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -4678,7 +4704,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="1">
-        <v>45735</v>
+        <v>45796</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -4690,7 +4716,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="1">
-        <v>45736</v>
+        <v>45797</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -4702,7 +4728,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="1">
-        <v>45737</v>
+        <v>45798</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -4714,7 +4740,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="1">
-        <v>45738</v>
+        <v>45799</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -4726,7 +4752,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="1">
-        <v>45739</v>
+        <v>45800</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -4738,7 +4764,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="1">
-        <v>45740</v>
+        <v>45801</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -4750,7 +4776,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="1">
-        <v>45741</v>
+        <v>45802</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -4762,7 +4788,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="1">
-        <v>45742</v>
+        <v>45803</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -4774,7 +4800,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="1">
-        <v>45743</v>
+        <v>45804</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -4786,7 +4812,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="1">
-        <v>45744</v>
+        <v>45805</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -4798,7 +4824,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="1">
-        <v>45745</v>
+        <v>45806</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -4810,7 +4836,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="1">
-        <v>45746</v>
+        <v>45807</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -4822,7 +4848,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="1">
-        <v>45747</v>
+        <v>45808</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -4853,8 +4879,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4868,99 +4894,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43">
-        <v>45717</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45"/>
+      <c r="A3" s="22">
+        <v>45778</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
     </row>
     <row r="4" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="10"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="18"/>
+      <c r="A5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="19"/>
       <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="26"/>
+      <c r="E6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>45717</v>
+        <v>45778</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -4972,7 +4998,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="1">
-        <v>45718</v>
+        <v>45779</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -4984,7 +5010,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>45719</v>
+        <v>45780</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -4996,7 +5022,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1">
-        <v>45720</v>
+        <v>45781</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -5008,7 +5034,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="1">
-        <v>45721</v>
+        <v>45782</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -5020,7 +5046,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="1">
-        <v>45722</v>
+        <v>45783</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -5032,7 +5058,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="1">
-        <v>45723</v>
+        <v>45784</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -5044,7 +5070,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="1">
-        <v>45724</v>
+        <v>45785</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -5056,7 +5082,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="1">
-        <v>45725</v>
+        <v>45786</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -5068,7 +5094,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="1">
-        <v>45726</v>
+        <v>45787</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -5080,7 +5106,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="1">
-        <v>45727</v>
+        <v>45788</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -5092,7 +5118,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="1">
-        <v>45728</v>
+        <v>45789</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -5104,7 +5130,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="1">
-        <v>45729</v>
+        <v>45790</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -5116,7 +5142,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="1">
-        <v>45730</v>
+        <v>45791</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -5128,7 +5154,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="1">
-        <v>45731</v>
+        <v>45792</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -5140,7 +5166,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="1">
-        <v>45732</v>
+        <v>45793</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -5152,7 +5178,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="1">
-        <v>45733</v>
+        <v>45794</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -5164,7 +5190,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="1">
-        <v>45734</v>
+        <v>45795</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -5176,7 +5202,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="1">
-        <v>45735</v>
+        <v>45796</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -5188,7 +5214,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="1">
-        <v>45736</v>
+        <v>45797</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -5200,7 +5226,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="1">
-        <v>45737</v>
+        <v>45798</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -5212,7 +5238,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="1">
-        <v>45738</v>
+        <v>45799</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -5224,7 +5250,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="1">
-        <v>45739</v>
+        <v>45800</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -5236,7 +5262,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="1">
-        <v>45740</v>
+        <v>45801</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -5248,7 +5274,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="1">
-        <v>45741</v>
+        <v>45802</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -5260,7 +5286,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="1">
-        <v>45742</v>
+        <v>45803</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -5272,7 +5298,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="1">
-        <v>45743</v>
+        <v>45804</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -5284,7 +5310,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="1">
-        <v>45744</v>
+        <v>45805</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -5296,7 +5322,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="1">
-        <v>45745</v>
+        <v>45806</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -5308,7 +5334,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="1">
-        <v>45746</v>
+        <v>45807</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -5320,7 +5346,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="1">
-        <v>45747</v>
+        <v>45808</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -5351,8 +5377,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5366,99 +5392,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43">
-        <v>45717</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45"/>
+      <c r="A3" s="22">
+        <v>45778</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
     </row>
     <row r="4" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="10"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="26"/>
+      <c r="E6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>45717</v>
+        <v>45778</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -5470,7 +5496,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="1">
-        <v>45718</v>
+        <v>45779</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -5482,7 +5508,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>45719</v>
+        <v>45780</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -5494,7 +5520,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1">
-        <v>45720</v>
+        <v>45781</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -5506,7 +5532,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="1">
-        <v>45721</v>
+        <v>45782</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -5518,7 +5544,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="1">
-        <v>45722</v>
+        <v>45783</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -5530,7 +5556,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="1">
-        <v>45723</v>
+        <v>45784</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -5542,7 +5568,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="1">
-        <v>45724</v>
+        <v>45785</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -5554,7 +5580,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="1">
-        <v>45725</v>
+        <v>45786</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -5566,7 +5592,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="1">
-        <v>45726</v>
+        <v>45787</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -5578,7 +5604,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="1">
-        <v>45727</v>
+        <v>45788</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -5590,7 +5616,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="1">
-        <v>45728</v>
+        <v>45789</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -5602,7 +5628,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="1">
-        <v>45729</v>
+        <v>45790</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -5614,7 +5640,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="1">
-        <v>45730</v>
+        <v>45791</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -5626,7 +5652,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="1">
-        <v>45731</v>
+        <v>45792</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -5638,7 +5664,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="1">
-        <v>45732</v>
+        <v>45793</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -5650,7 +5676,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="1">
-        <v>45733</v>
+        <v>45794</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -5662,7 +5688,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="1">
-        <v>45734</v>
+        <v>45795</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -5674,7 +5700,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="1">
-        <v>45735</v>
+        <v>45796</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -5686,7 +5712,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="1">
-        <v>45736</v>
+        <v>45797</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -5698,7 +5724,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="1">
-        <v>45737</v>
+        <v>45798</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -5710,7 +5736,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="1">
-        <v>45738</v>
+        <v>45799</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -5722,7 +5748,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="1">
-        <v>45739</v>
+        <v>45800</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -5734,7 +5760,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="1">
-        <v>45740</v>
+        <v>45801</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -5746,7 +5772,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="1">
-        <v>45741</v>
+        <v>45802</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -5758,7 +5784,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="1">
-        <v>45742</v>
+        <v>45803</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -5770,7 +5796,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="1">
-        <v>45743</v>
+        <v>45804</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -5782,7 +5808,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="1">
-        <v>45744</v>
+        <v>45805</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -5794,7 +5820,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="1">
-        <v>45745</v>
+        <v>45806</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -5806,7 +5832,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="1">
-        <v>45746</v>
+        <v>45807</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -5818,7 +5844,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="1">
-        <v>45747</v>
+        <v>45808</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -5849,8 +5875,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5864,99 +5890,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43">
-        <v>45717</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45"/>
+      <c r="A3" s="22">
+        <v>45778</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
     </row>
     <row r="4" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="10"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="26"/>
+      <c r="E6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>45717</v>
+        <v>45778</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -5968,7 +5994,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="1">
-        <v>45718</v>
+        <v>45779</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -5980,7 +6006,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>45719</v>
+        <v>45780</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -5992,7 +6018,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1">
-        <v>45720</v>
+        <v>45781</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -6004,7 +6030,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="1">
-        <v>45721</v>
+        <v>45782</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -6016,7 +6042,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="1">
-        <v>45722</v>
+        <v>45783</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -6028,7 +6054,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="1">
-        <v>45723</v>
+        <v>45784</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -6040,7 +6066,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="1">
-        <v>45724</v>
+        <v>45785</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -6052,7 +6078,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="1">
-        <v>45725</v>
+        <v>45786</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -6064,7 +6090,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="1">
-        <v>45726</v>
+        <v>45787</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -6076,7 +6102,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="1">
-        <v>45727</v>
+        <v>45788</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -6088,7 +6114,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="1">
-        <v>45728</v>
+        <v>45789</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -6100,7 +6126,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="1">
-        <v>45729</v>
+        <v>45790</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -6112,7 +6138,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="1">
-        <v>45730</v>
+        <v>45791</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -6124,7 +6150,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="1">
-        <v>45731</v>
+        <v>45792</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -6136,7 +6162,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="1">
-        <v>45732</v>
+        <v>45793</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -6148,7 +6174,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="1">
-        <v>45733</v>
+        <v>45794</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -6160,7 +6186,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="1">
-        <v>45734</v>
+        <v>45795</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -6172,7 +6198,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="1">
-        <v>45735</v>
+        <v>45796</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -6184,7 +6210,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="1">
-        <v>45736</v>
+        <v>45797</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -6196,7 +6222,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="1">
-        <v>45737</v>
+        <v>45798</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -6208,7 +6234,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="1">
-        <v>45738</v>
+        <v>45799</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -6220,7 +6246,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="1">
-        <v>45739</v>
+        <v>45800</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -6232,7 +6258,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="1">
-        <v>45740</v>
+        <v>45801</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -6244,7 +6270,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="1">
-        <v>45741</v>
+        <v>45802</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -6256,7 +6282,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="1">
-        <v>45742</v>
+        <v>45803</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -6268,7 +6294,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="1">
-        <v>45743</v>
+        <v>45804</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -6280,7 +6306,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="1">
-        <v>45744</v>
+        <v>45805</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -6292,7 +6318,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="1">
-        <v>45745</v>
+        <v>45806</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -6304,7 +6330,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="1">
-        <v>45746</v>
+        <v>45807</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -6316,7 +6342,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="1">
-        <v>45747</v>
+        <v>45808</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>

--- a/HR Department/STAFF-ROASTER.xlsx
+++ b/HR Department/STAFF-ROASTER.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="40">
   <si>
     <t>Nursing Staff</t>
   </si>
@@ -130,9 +130,6 @@
     <t>Devraj Gurjar</t>
   </si>
   <si>
-    <t>Maya Lohar</t>
-  </si>
-  <si>
     <t>Kishan</t>
   </si>
   <si>
@@ -146,6 +143,12 @@
   </si>
   <si>
     <t xml:space="preserve">Orthopedic </t>
+  </si>
+  <si>
+    <t>June,2025</t>
+  </si>
+  <si>
+    <t>Sonu Basita</t>
   </si>
 </sst>
 </file>
@@ -827,10 +830,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,8 +865,8 @@
       <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
-        <v>45778</v>
+      <c r="A3" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -898,7 +901,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1290,18 +1293,6 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>31</v>
-      </c>
-      <c r="B38" s="1">
-        <v>45808</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1325,10 +1316,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1366,8 +1357,8 @@
       <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34">
-        <v>45778</v>
+      <c r="A3" s="34" t="s">
+        <v>38</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -1404,7 +1395,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1796,18 +1787,6 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>31</v>
-      </c>
-      <c r="B38" s="1">
-        <v>45808</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2386,10 +2365,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2421,8 +2400,8 @@
       <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
-        <v>45778</v>
+      <c r="A3" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -2457,7 +2436,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2849,18 +2828,6 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>31</v>
-      </c>
-      <c r="B38" s="1">
-        <v>45808</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2884,10 +2851,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2919,8 +2886,8 @@
       <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
-        <v>45778</v>
+      <c r="A3" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -2955,7 +2922,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3347,18 +3314,6 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>31</v>
-      </c>
-      <c r="B38" s="1">
-        <v>45808</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3382,10 +3337,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3417,8 +3372,8 @@
       <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
-        <v>45778</v>
+      <c r="A3" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -3432,7 +3387,7 @@
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="7" t="s">
@@ -3453,7 +3408,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3845,18 +3800,6 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>31</v>
-      </c>
-      <c r="B38" s="1">
-        <v>45808</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3881,10 +3824,10 @@
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3916,8 +3859,8 @@
       <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
-        <v>45748</v>
+      <c r="A3" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -3952,7 +3895,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4344,18 +4287,6 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>31</v>
-      </c>
-      <c r="B38" s="1">
-        <v>45808</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4379,10 +4310,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4414,8 +4345,8 @@
       <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
-        <v>45778</v>
+      <c r="A3" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -4429,7 +4360,7 @@
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="7" t="s">
@@ -4450,7 +4381,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4842,18 +4773,6 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>31</v>
-      </c>
-      <c r="B38" s="1">
-        <v>45808</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4877,10 +4796,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4912,8 +4831,8 @@
       <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
-        <v>45778</v>
+      <c r="A3" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -4927,7 +4846,7 @@
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="7" t="s">
@@ -4948,7 +4867,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5340,18 +5259,6 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>31</v>
-      </c>
-      <c r="B38" s="1">
-        <v>45808</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5375,10 +5282,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5410,8 +5317,8 @@
       <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
-        <v>45778</v>
+      <c r="A3" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -5425,7 +5332,7 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="7" t="s">
@@ -5446,7 +5353,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5838,18 +5745,6 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>31</v>
-      </c>
-      <c r="B38" s="1">
-        <v>45808</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5871,12 +5766,13 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5908,8 +5804,8 @@
       <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
-        <v>45778</v>
+      <c r="A3" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -5923,7 +5819,7 @@
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="20" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="7" t="s">
@@ -5944,7 +5840,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6336,18 +6232,6 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>31</v>
-      </c>
-      <c r="B38" s="1">
-        <v>45808</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/HR Department/STAFF-ROASTER.xlsx
+++ b/HR Department/STAFF-ROASTER.xlsx
@@ -148,7 +148,7 @@
     <t>June,2025</t>
   </si>
   <si>
-    <t>Sonu Basita</t>
+    <t>Pooja Baiji</t>
   </si>
 </sst>
 </file>
@@ -2344,16 +2344,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -5772,7 +5772,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HR Department/STAFF-ROASTER.xlsx
+++ b/HR Department/STAFF-ROASTER.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-14009]dd\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="171" formatCode="dd\-mm\-yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -274,6 +274,10 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -281,6 +285,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -292,21 +299,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -617,8 +617,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,42 +632,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
@@ -678,10 +678,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="5" t="s">
         <v>2</v>
       </c>
@@ -690,40 +690,40 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="10">
         <v>45839</v>
       </c>
       <c r="C8" s="1"/>
@@ -735,7 +735,7 @@
       <c r="A9" s="3">
         <v>2</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="10">
         <v>45840</v>
       </c>
       <c r="C9" s="1"/>
@@ -747,7 +747,7 @@
       <c r="A10" s="3">
         <v>3</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="10">
         <v>45841</v>
       </c>
       <c r="C10" s="1"/>
@@ -759,7 +759,7 @@
       <c r="A11" s="3">
         <v>4</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="10">
         <v>45842</v>
       </c>
       <c r="C11" s="1"/>
@@ -771,7 +771,7 @@
       <c r="A12" s="3">
         <v>5</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="10">
         <v>45843</v>
       </c>
       <c r="C12" s="1"/>
@@ -783,7 +783,7 @@
       <c r="A13" s="3">
         <v>6</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="10">
         <v>45844</v>
       </c>
       <c r="C13" s="1"/>
@@ -795,7 +795,7 @@
       <c r="A14" s="3">
         <v>7</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="10">
         <v>45845</v>
       </c>
       <c r="C14" s="1"/>
@@ -807,7 +807,7 @@
       <c r="A15" s="3">
         <v>8</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="10">
         <v>45846</v>
       </c>
       <c r="C15" s="1"/>
@@ -819,7 +819,7 @@
       <c r="A16" s="3">
         <v>9</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="10">
         <v>45847</v>
       </c>
       <c r="C16" s="1"/>
@@ -831,7 +831,7 @@
       <c r="A17" s="3">
         <v>10</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="10">
         <v>45848</v>
       </c>
       <c r="C17" s="1"/>
@@ -843,7 +843,7 @@
       <c r="A18" s="3">
         <v>11</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="10">
         <v>45849</v>
       </c>
       <c r="C18" s="1"/>
@@ -855,7 +855,7 @@
       <c r="A19" s="3">
         <v>12</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="10">
         <v>45850</v>
       </c>
       <c r="C19" s="1"/>
@@ -867,7 +867,7 @@
       <c r="A20" s="3">
         <v>13</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="10">
         <v>45851</v>
       </c>
       <c r="C20" s="1"/>
@@ -879,7 +879,7 @@
       <c r="A21" s="3">
         <v>14</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="10">
         <v>45852</v>
       </c>
       <c r="C21" s="1"/>
@@ -891,7 +891,7 @@
       <c r="A22" s="3">
         <v>15</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="10">
         <v>45853</v>
       </c>
       <c r="C22" s="1"/>
@@ -903,7 +903,7 @@
       <c r="A23" s="3">
         <v>16</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="10">
         <v>45854</v>
       </c>
       <c r="C23" s="1"/>
@@ -915,7 +915,7 @@
       <c r="A24" s="3">
         <v>17</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="10">
         <v>45855</v>
       </c>
       <c r="C24" s="1"/>
@@ -927,7 +927,7 @@
       <c r="A25" s="3">
         <v>18</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="10">
         <v>45856</v>
       </c>
       <c r="C25" s="1"/>
@@ -939,7 +939,7 @@
       <c r="A26" s="3">
         <v>19</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="10">
         <v>45857</v>
       </c>
       <c r="C26" s="1"/>
@@ -951,7 +951,7 @@
       <c r="A27" s="3">
         <v>20</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="10">
         <v>45858</v>
       </c>
       <c r="C27" s="1"/>
@@ -963,7 +963,7 @@
       <c r="A28" s="3">
         <v>21</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="10">
         <v>45859</v>
       </c>
       <c r="C28" s="1"/>
@@ -975,7 +975,7 @@
       <c r="A29" s="3">
         <v>22</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="10">
         <v>45860</v>
       </c>
       <c r="C29" s="1"/>
@@ -987,7 +987,7 @@
       <c r="A30" s="3">
         <v>23</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="10">
         <v>45861</v>
       </c>
       <c r="C30" s="1"/>
@@ -999,7 +999,7 @@
       <c r="A31" s="3">
         <v>24</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="10">
         <v>45862</v>
       </c>
       <c r="C31" s="1"/>
@@ -1011,7 +1011,7 @@
       <c r="A32" s="3">
         <v>25</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="10">
         <v>45863</v>
       </c>
       <c r="C32" s="1"/>
@@ -1023,7 +1023,7 @@
       <c r="A33" s="3">
         <v>26</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="10">
         <v>45864</v>
       </c>
       <c r="C33" s="1"/>
@@ -1035,7 +1035,7 @@
       <c r="A34" s="3">
         <v>27</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="10">
         <v>45865</v>
       </c>
       <c r="C34" s="1"/>
@@ -1047,7 +1047,7 @@
       <c r="A35" s="3">
         <v>28</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="10">
         <v>45866</v>
       </c>
       <c r="C35" s="1"/>
@@ -1059,7 +1059,7 @@
       <c r="A36" s="3">
         <v>29</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="10">
         <v>45867</v>
       </c>
       <c r="C36" s="1"/>
@@ -1071,7 +1071,7 @@
       <c r="A37" s="3">
         <v>30</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B37" s="10">
         <v>45868</v>
       </c>
       <c r="C37" s="1"/>
@@ -1080,10 +1080,10 @@
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="21">
+      <c r="A38" s="11">
         <v>31</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B38" s="10">
         <v>45869</v>
       </c>
       <c r="C38" s="1"/>
@@ -1115,8 +1115,8 @@
   </sheetPr>
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1136,42 +1136,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.600000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="9" t="s">
         <v>16</v>
       </c>
@@ -1184,10 +1184,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1196,40 +1196,40 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="10">
         <v>45839</v>
       </c>
       <c r="C8" s="1"/>
@@ -1241,7 +1241,7 @@
       <c r="A9" s="3">
         <v>2</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="10">
         <v>45840</v>
       </c>
       <c r="C9" s="1"/>
@@ -1253,7 +1253,7 @@
       <c r="A10" s="3">
         <v>3</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="10">
         <v>45841</v>
       </c>
       <c r="C10" s="1"/>
@@ -1265,7 +1265,7 @@
       <c r="A11" s="3">
         <v>4</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="10">
         <v>45842</v>
       </c>
       <c r="C11" s="1"/>
@@ -1277,7 +1277,7 @@
       <c r="A12" s="3">
         <v>5</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="10">
         <v>45843</v>
       </c>
       <c r="C12" s="1"/>
@@ -1289,7 +1289,7 @@
       <c r="A13" s="3">
         <v>6</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="10">
         <v>45844</v>
       </c>
       <c r="C13" s="1"/>
@@ -1301,7 +1301,7 @@
       <c r="A14" s="3">
         <v>7</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="10">
         <v>45845</v>
       </c>
       <c r="C14" s="1"/>
@@ -1313,7 +1313,7 @@
       <c r="A15" s="3">
         <v>8</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="10">
         <v>45846</v>
       </c>
       <c r="C15" s="1"/>
@@ -1325,7 +1325,7 @@
       <c r="A16" s="3">
         <v>9</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="10">
         <v>45847</v>
       </c>
       <c r="C16" s="1"/>
@@ -1337,7 +1337,7 @@
       <c r="A17" s="3">
         <v>10</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="10">
         <v>45848</v>
       </c>
       <c r="C17" s="1"/>
@@ -1349,7 +1349,7 @@
       <c r="A18" s="3">
         <v>11</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="10">
         <v>45849</v>
       </c>
       <c r="C18" s="1"/>
@@ -1361,7 +1361,7 @@
       <c r="A19" s="3">
         <v>12</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="10">
         <v>45850</v>
       </c>
       <c r="C19" s="1"/>
@@ -1373,7 +1373,7 @@
       <c r="A20" s="3">
         <v>13</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="10">
         <v>45851</v>
       </c>
       <c r="C20" s="1"/>
@@ -1385,7 +1385,7 @@
       <c r="A21" s="3">
         <v>14</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="10">
         <v>45852</v>
       </c>
       <c r="C21" s="1"/>
@@ -1397,7 +1397,7 @@
       <c r="A22" s="3">
         <v>15</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="10">
         <v>45853</v>
       </c>
       <c r="C22" s="1"/>
@@ -1409,7 +1409,7 @@
       <c r="A23" s="3">
         <v>16</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="10">
         <v>45854</v>
       </c>
       <c r="C23" s="1"/>
@@ -1421,7 +1421,7 @@
       <c r="A24" s="3">
         <v>17</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="10">
         <v>45855</v>
       </c>
       <c r="C24" s="1"/>
@@ -1433,7 +1433,7 @@
       <c r="A25" s="3">
         <v>18</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="10">
         <v>45856</v>
       </c>
       <c r="C25" s="1"/>
@@ -1445,7 +1445,7 @@
       <c r="A26" s="3">
         <v>19</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="10">
         <v>45857</v>
       </c>
       <c r="C26" s="1"/>
@@ -1457,7 +1457,7 @@
       <c r="A27" s="3">
         <v>20</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="10">
         <v>45858</v>
       </c>
       <c r="C27" s="1"/>
@@ -1469,7 +1469,7 @@
       <c r="A28" s="3">
         <v>21</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="10">
         <v>45859</v>
       </c>
       <c r="C28" s="1"/>
@@ -1481,7 +1481,7 @@
       <c r="A29" s="3">
         <v>22</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="10">
         <v>45860</v>
       </c>
       <c r="C29" s="1"/>
@@ -1493,7 +1493,7 @@
       <c r="A30" s="3">
         <v>23</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="10">
         <v>45861</v>
       </c>
       <c r="C30" s="1"/>
@@ -1505,7 +1505,7 @@
       <c r="A31" s="3">
         <v>24</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="10">
         <v>45862</v>
       </c>
       <c r="C31" s="1"/>
@@ -1517,7 +1517,7 @@
       <c r="A32" s="3">
         <v>25</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="10">
         <v>45863</v>
       </c>
       <c r="C32" s="1"/>
@@ -1529,7 +1529,7 @@
       <c r="A33" s="3">
         <v>26</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="10">
         <v>45864</v>
       </c>
       <c r="C33" s="1"/>
@@ -1541,7 +1541,7 @@
       <c r="A34" s="3">
         <v>27</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="10">
         <v>45865</v>
       </c>
       <c r="C34" s="1"/>
@@ -1553,7 +1553,7 @@
       <c r="A35" s="3">
         <v>28</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="10">
         <v>45866</v>
       </c>
       <c r="C35" s="1"/>
@@ -1565,7 +1565,7 @@
       <c r="A36" s="3">
         <v>29</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="10">
         <v>45867</v>
       </c>
       <c r="C36" s="1"/>
@@ -1577,7 +1577,7 @@
       <c r="A37" s="3">
         <v>30</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B37" s="10">
         <v>45868</v>
       </c>
       <c r="C37" s="1"/>
@@ -1586,10 +1586,10 @@
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="21">
+      <c r="A38" s="11">
         <v>31</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B38" s="10">
         <v>45869</v>
       </c>
       <c r="C38" s="1"/>
@@ -1610,7 +1610,7 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="E6:E7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.39" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="92" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
@@ -1622,8 +1622,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1637,42 +1637,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1683,10 +1683,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1695,40 +1695,40 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="10">
         <v>45839</v>
       </c>
       <c r="C8" s="1"/>
@@ -1740,7 +1740,7 @@
       <c r="A9" s="3">
         <v>2</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="10">
         <v>45840</v>
       </c>
       <c r="C9" s="1"/>
@@ -1752,7 +1752,7 @@
       <c r="A10" s="3">
         <v>3</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="10">
         <v>45841</v>
       </c>
       <c r="C10" s="1"/>
@@ -1764,7 +1764,7 @@
       <c r="A11" s="3">
         <v>4</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="10">
         <v>45842</v>
       </c>
       <c r="C11" s="1"/>
@@ -1776,7 +1776,7 @@
       <c r="A12" s="3">
         <v>5</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="10">
         <v>45843</v>
       </c>
       <c r="C12" s="1"/>
@@ -1788,7 +1788,7 @@
       <c r="A13" s="3">
         <v>6</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="10">
         <v>45844</v>
       </c>
       <c r="C13" s="1"/>
@@ -1800,7 +1800,7 @@
       <c r="A14" s="3">
         <v>7</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="10">
         <v>45845</v>
       </c>
       <c r="C14" s="1"/>
@@ -1812,7 +1812,7 @@
       <c r="A15" s="3">
         <v>8</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="10">
         <v>45846</v>
       </c>
       <c r="C15" s="1"/>
@@ -1824,7 +1824,7 @@
       <c r="A16" s="3">
         <v>9</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="10">
         <v>45847</v>
       </c>
       <c r="C16" s="1"/>
@@ -1836,7 +1836,7 @@
       <c r="A17" s="3">
         <v>10</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="10">
         <v>45848</v>
       </c>
       <c r="C17" s="1"/>
@@ -1848,7 +1848,7 @@
       <c r="A18" s="3">
         <v>11</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="10">
         <v>45849</v>
       </c>
       <c r="C18" s="1"/>
@@ -1860,7 +1860,7 @@
       <c r="A19" s="3">
         <v>12</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="10">
         <v>45850</v>
       </c>
       <c r="C19" s="1"/>
@@ -1872,7 +1872,7 @@
       <c r="A20" s="3">
         <v>13</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="10">
         <v>45851</v>
       </c>
       <c r="C20" s="1"/>
@@ -1884,7 +1884,7 @@
       <c r="A21" s="3">
         <v>14</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="10">
         <v>45852</v>
       </c>
       <c r="C21" s="1"/>
@@ -1896,7 +1896,7 @@
       <c r="A22" s="3">
         <v>15</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="10">
         <v>45853</v>
       </c>
       <c r="C22" s="1"/>
@@ -1908,7 +1908,7 @@
       <c r="A23" s="3">
         <v>16</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="10">
         <v>45854</v>
       </c>
       <c r="C23" s="1"/>
@@ -1920,7 +1920,7 @@
       <c r="A24" s="3">
         <v>17</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="10">
         <v>45855</v>
       </c>
       <c r="C24" s="1"/>
@@ -1932,7 +1932,7 @@
       <c r="A25" s="3">
         <v>18</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="10">
         <v>45856</v>
       </c>
       <c r="C25" s="1"/>
@@ -1944,7 +1944,7 @@
       <c r="A26" s="3">
         <v>19</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="10">
         <v>45857</v>
       </c>
       <c r="C26" s="1"/>
@@ -1956,7 +1956,7 @@
       <c r="A27" s="3">
         <v>20</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="10">
         <v>45858</v>
       </c>
       <c r="C27" s="1"/>
@@ -1968,7 +1968,7 @@
       <c r="A28" s="3">
         <v>21</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="10">
         <v>45859</v>
       </c>
       <c r="C28" s="1"/>
@@ -1980,7 +1980,7 @@
       <c r="A29" s="3">
         <v>22</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="10">
         <v>45860</v>
       </c>
       <c r="C29" s="1"/>
@@ -1992,7 +1992,7 @@
       <c r="A30" s="3">
         <v>23</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="10">
         <v>45861</v>
       </c>
       <c r="C30" s="1"/>
@@ -2004,7 +2004,7 @@
       <c r="A31" s="3">
         <v>24</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="10">
         <v>45862</v>
       </c>
       <c r="C31" s="1"/>
@@ -2016,7 +2016,7 @@
       <c r="A32" s="3">
         <v>25</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="10">
         <v>45863</v>
       </c>
       <c r="C32" s="1"/>
@@ -2028,7 +2028,7 @@
       <c r="A33" s="3">
         <v>26</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="10">
         <v>45864</v>
       </c>
       <c r="C33" s="1"/>
@@ -2040,7 +2040,7 @@
       <c r="A34" s="3">
         <v>27</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="10">
         <v>45865</v>
       </c>
       <c r="C34" s="1"/>
@@ -2052,7 +2052,7 @@
       <c r="A35" s="3">
         <v>28</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="10">
         <v>45866</v>
       </c>
       <c r="C35" s="1"/>
@@ -2064,7 +2064,7 @@
       <c r="A36" s="3">
         <v>29</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="10">
         <v>45867</v>
       </c>
       <c r="C36" s="1"/>
@@ -2076,7 +2076,7 @@
       <c r="A37" s="3">
         <v>30</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B37" s="10">
         <v>45868</v>
       </c>
       <c r="C37" s="1"/>
@@ -2085,10 +2085,10 @@
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="21">
+      <c r="A38" s="11">
         <v>31</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B38" s="10">
         <v>45869</v>
       </c>
       <c r="C38" s="1"/>
@@ -2108,7 +2108,7 @@
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.39" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="92" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
@@ -2120,8 +2120,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2135,42 +2135,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
@@ -2181,10 +2181,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="5" t="s">
         <v>2</v>
       </c>
@@ -2193,40 +2193,40 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="10">
         <v>45839</v>
       </c>
       <c r="C8" s="1"/>
@@ -2238,7 +2238,7 @@
       <c r="A9" s="3">
         <v>2</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="10">
         <v>45840</v>
       </c>
       <c r="C9" s="1"/>
@@ -2250,7 +2250,7 @@
       <c r="A10" s="3">
         <v>3</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="10">
         <v>45841</v>
       </c>
       <c r="C10" s="1"/>
@@ -2262,7 +2262,7 @@
       <c r="A11" s="3">
         <v>4</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="10">
         <v>45842</v>
       </c>
       <c r="C11" s="1"/>
@@ -2274,7 +2274,7 @@
       <c r="A12" s="3">
         <v>5</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="10">
         <v>45843</v>
       </c>
       <c r="C12" s="1"/>
@@ -2286,7 +2286,7 @@
       <c r="A13" s="3">
         <v>6</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="10">
         <v>45844</v>
       </c>
       <c r="C13" s="1"/>
@@ -2298,7 +2298,7 @@
       <c r="A14" s="3">
         <v>7</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="10">
         <v>45845</v>
       </c>
       <c r="C14" s="1"/>
@@ -2310,7 +2310,7 @@
       <c r="A15" s="3">
         <v>8</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="10">
         <v>45846</v>
       </c>
       <c r="C15" s="1"/>
@@ -2322,7 +2322,7 @@
       <c r="A16" s="3">
         <v>9</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="10">
         <v>45847</v>
       </c>
       <c r="C16" s="1"/>
@@ -2334,7 +2334,7 @@
       <c r="A17" s="3">
         <v>10</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="10">
         <v>45848</v>
       </c>
       <c r="C17" s="1"/>
@@ -2346,7 +2346,7 @@
       <c r="A18" s="3">
         <v>11</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="10">
         <v>45849</v>
       </c>
       <c r="C18" s="1"/>
@@ -2358,7 +2358,7 @@
       <c r="A19" s="3">
         <v>12</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="10">
         <v>45850</v>
       </c>
       <c r="C19" s="1"/>
@@ -2370,7 +2370,7 @@
       <c r="A20" s="3">
         <v>13</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="10">
         <v>45851</v>
       </c>
       <c r="C20" s="1"/>
@@ -2382,7 +2382,7 @@
       <c r="A21" s="3">
         <v>14</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="10">
         <v>45852</v>
       </c>
       <c r="C21" s="1"/>
@@ -2394,7 +2394,7 @@
       <c r="A22" s="3">
         <v>15</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="10">
         <v>45853</v>
       </c>
       <c r="C22" s="1"/>
@@ -2406,7 +2406,7 @@
       <c r="A23" s="3">
         <v>16</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="10">
         <v>45854</v>
       </c>
       <c r="C23" s="1"/>
@@ -2418,7 +2418,7 @@
       <c r="A24" s="3">
         <v>17</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="10">
         <v>45855</v>
       </c>
       <c r="C24" s="1"/>
@@ -2430,7 +2430,7 @@
       <c r="A25" s="3">
         <v>18</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="10">
         <v>45856</v>
       </c>
       <c r="C25" s="1"/>
@@ -2442,7 +2442,7 @@
       <c r="A26" s="3">
         <v>19</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="10">
         <v>45857</v>
       </c>
       <c r="C26" s="1"/>
@@ -2454,7 +2454,7 @@
       <c r="A27" s="3">
         <v>20</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="10">
         <v>45858</v>
       </c>
       <c r="C27" s="1"/>
@@ -2466,7 +2466,7 @@
       <c r="A28" s="3">
         <v>21</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="10">
         <v>45859</v>
       </c>
       <c r="C28" s="1"/>
@@ -2478,7 +2478,7 @@
       <c r="A29" s="3">
         <v>22</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="10">
         <v>45860</v>
       </c>
       <c r="C29" s="1"/>
@@ -2490,7 +2490,7 @@
       <c r="A30" s="3">
         <v>23</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="10">
         <v>45861</v>
       </c>
       <c r="C30" s="1"/>
@@ -2502,7 +2502,7 @@
       <c r="A31" s="3">
         <v>24</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="10">
         <v>45862</v>
       </c>
       <c r="C31" s="1"/>
@@ -2514,7 +2514,7 @@
       <c r="A32" s="3">
         <v>25</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="10">
         <v>45863</v>
       </c>
       <c r="C32" s="1"/>
@@ -2526,7 +2526,7 @@
       <c r="A33" s="3">
         <v>26</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="10">
         <v>45864</v>
       </c>
       <c r="C33" s="1"/>
@@ -2538,7 +2538,7 @@
       <c r="A34" s="3">
         <v>27</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="10">
         <v>45865</v>
       </c>
       <c r="C34" s="1"/>
@@ -2550,7 +2550,7 @@
       <c r="A35" s="3">
         <v>28</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="10">
         <v>45866</v>
       </c>
       <c r="C35" s="1"/>
@@ -2562,7 +2562,7 @@
       <c r="A36" s="3">
         <v>29</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="10">
         <v>45867</v>
       </c>
       <c r="C36" s="1"/>
@@ -2574,7 +2574,7 @@
       <c r="A37" s="3">
         <v>30</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B37" s="10">
         <v>45868</v>
       </c>
       <c r="C37" s="1"/>
@@ -2583,10 +2583,10 @@
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="21">
+      <c r="A38" s="11">
         <v>31</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B38" s="10">
         <v>45869</v>
       </c>
       <c r="C38" s="1"/>
@@ -2606,7 +2606,7 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:E7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.39" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="92" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
@@ -2618,8 +2618,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2633,42 +2633,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
@@ -2679,10 +2679,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="5" t="s">
         <v>2</v>
       </c>
@@ -2691,40 +2691,40 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="10">
         <v>45839</v>
       </c>
       <c r="C8" s="1"/>
@@ -2736,7 +2736,7 @@
       <c r="A9" s="3">
         <v>2</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="10">
         <v>45840</v>
       </c>
       <c r="C9" s="1"/>
@@ -2748,7 +2748,7 @@
       <c r="A10" s="3">
         <v>3</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="10">
         <v>45841</v>
       </c>
       <c r="C10" s="1"/>
@@ -2760,7 +2760,7 @@
       <c r="A11" s="3">
         <v>4</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="10">
         <v>45842</v>
       </c>
       <c r="C11" s="1"/>
@@ -2772,7 +2772,7 @@
       <c r="A12" s="3">
         <v>5</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="10">
         <v>45843</v>
       </c>
       <c r="C12" s="1"/>
@@ -2784,7 +2784,7 @@
       <c r="A13" s="3">
         <v>6</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="10">
         <v>45844</v>
       </c>
       <c r="C13" s="1"/>
@@ -2796,7 +2796,7 @@
       <c r="A14" s="3">
         <v>7</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="10">
         <v>45845</v>
       </c>
       <c r="C14" s="1"/>
@@ -2808,7 +2808,7 @@
       <c r="A15" s="3">
         <v>8</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="10">
         <v>45846</v>
       </c>
       <c r="C15" s="1"/>
@@ -2820,7 +2820,7 @@
       <c r="A16" s="3">
         <v>9</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="10">
         <v>45847</v>
       </c>
       <c r="C16" s="1"/>
@@ -2832,7 +2832,7 @@
       <c r="A17" s="3">
         <v>10</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="10">
         <v>45848</v>
       </c>
       <c r="C17" s="1"/>
@@ -2844,7 +2844,7 @@
       <c r="A18" s="3">
         <v>11</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="10">
         <v>45849</v>
       </c>
       <c r="C18" s="1"/>
@@ -2856,7 +2856,7 @@
       <c r="A19" s="3">
         <v>12</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="10">
         <v>45850</v>
       </c>
       <c r="C19" s="1"/>
@@ -2868,7 +2868,7 @@
       <c r="A20" s="3">
         <v>13</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="10">
         <v>45851</v>
       </c>
       <c r="C20" s="1"/>
@@ -2880,7 +2880,7 @@
       <c r="A21" s="3">
         <v>14</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="10">
         <v>45852</v>
       </c>
       <c r="C21" s="1"/>
@@ -2892,7 +2892,7 @@
       <c r="A22" s="3">
         <v>15</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="10">
         <v>45853</v>
       </c>
       <c r="C22" s="1"/>
@@ -2904,7 +2904,7 @@
       <c r="A23" s="3">
         <v>16</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="10">
         <v>45854</v>
       </c>
       <c r="C23" s="1"/>
@@ -2916,7 +2916,7 @@
       <c r="A24" s="3">
         <v>17</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="10">
         <v>45855</v>
       </c>
       <c r="C24" s="1"/>
@@ -2928,7 +2928,7 @@
       <c r="A25" s="3">
         <v>18</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="10">
         <v>45856</v>
       </c>
       <c r="C25" s="1"/>
@@ -2940,7 +2940,7 @@
       <c r="A26" s="3">
         <v>19</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="10">
         <v>45857</v>
       </c>
       <c r="C26" s="1"/>
@@ -2952,7 +2952,7 @@
       <c r="A27" s="3">
         <v>20</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="10">
         <v>45858</v>
       </c>
       <c r="C27" s="1"/>
@@ -2964,7 +2964,7 @@
       <c r="A28" s="3">
         <v>21</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="10">
         <v>45859</v>
       </c>
       <c r="C28" s="1"/>
@@ -2976,7 +2976,7 @@
       <c r="A29" s="3">
         <v>22</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="10">
         <v>45860</v>
       </c>
       <c r="C29" s="1"/>
@@ -2988,7 +2988,7 @@
       <c r="A30" s="3">
         <v>23</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="10">
         <v>45861</v>
       </c>
       <c r="C30" s="1"/>
@@ -3000,7 +3000,7 @@
       <c r="A31" s="3">
         <v>24</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="10">
         <v>45862</v>
       </c>
       <c r="C31" s="1"/>
@@ -3012,7 +3012,7 @@
       <c r="A32" s="3">
         <v>25</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="10">
         <v>45863</v>
       </c>
       <c r="C32" s="1"/>
@@ -3024,7 +3024,7 @@
       <c r="A33" s="3">
         <v>26</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="10">
         <v>45864</v>
       </c>
       <c r="C33" s="1"/>
@@ -3036,7 +3036,7 @@
       <c r="A34" s="3">
         <v>27</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="10">
         <v>45865</v>
       </c>
       <c r="C34" s="1"/>
@@ -3048,7 +3048,7 @@
       <c r="A35" s="3">
         <v>28</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="10">
         <v>45866</v>
       </c>
       <c r="C35" s="1"/>
@@ -3060,7 +3060,7 @@
       <c r="A36" s="3">
         <v>29</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="10">
         <v>45867</v>
       </c>
       <c r="C36" s="1"/>
@@ -3072,7 +3072,7 @@
       <c r="A37" s="3">
         <v>30</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B37" s="10">
         <v>45868</v>
       </c>
       <c r="C37" s="1"/>
@@ -3081,10 +3081,10 @@
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="21">
+      <c r="A38" s="11">
         <v>31</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B38" s="10">
         <v>45869</v>
       </c>
       <c r="C38" s="1"/>
@@ -3104,7 +3104,7 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:E7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.39" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="92" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
@@ -3118,7 +3118,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3132,42 +3132,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
@@ -3178,10 +3178,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="5" t="s">
         <v>2</v>
       </c>
@@ -3190,40 +3190,40 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="10">
         <v>45839</v>
       </c>
       <c r="C8" s="1"/>
@@ -3235,7 +3235,7 @@
       <c r="A9" s="3">
         <v>2</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="10">
         <v>45840</v>
       </c>
       <c r="C9" s="1"/>
@@ -3247,7 +3247,7 @@
       <c r="A10" s="3">
         <v>3</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="10">
         <v>45841</v>
       </c>
       <c r="C10" s="1"/>
@@ -3259,7 +3259,7 @@
       <c r="A11" s="3">
         <v>4</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="10">
         <v>45842</v>
       </c>
       <c r="C11" s="1"/>
@@ -3271,7 +3271,7 @@
       <c r="A12" s="3">
         <v>5</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="10">
         <v>45843</v>
       </c>
       <c r="C12" s="1"/>
@@ -3283,7 +3283,7 @@
       <c r="A13" s="3">
         <v>6</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="10">
         <v>45844</v>
       </c>
       <c r="C13" s="1"/>
@@ -3295,7 +3295,7 @@
       <c r="A14" s="3">
         <v>7</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="10">
         <v>45845</v>
       </c>
       <c r="C14" s="1"/>
@@ -3307,7 +3307,7 @@
       <c r="A15" s="3">
         <v>8</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="10">
         <v>45846</v>
       </c>
       <c r="C15" s="1"/>
@@ -3319,7 +3319,7 @@
       <c r="A16" s="3">
         <v>9</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="10">
         <v>45847</v>
       </c>
       <c r="C16" s="1"/>
@@ -3331,7 +3331,7 @@
       <c r="A17" s="3">
         <v>10</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="10">
         <v>45848</v>
       </c>
       <c r="C17" s="1"/>
@@ -3343,7 +3343,7 @@
       <c r="A18" s="3">
         <v>11</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="10">
         <v>45849</v>
       </c>
       <c r="C18" s="1"/>
@@ -3355,7 +3355,7 @@
       <c r="A19" s="3">
         <v>12</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="10">
         <v>45850</v>
       </c>
       <c r="C19" s="1"/>
@@ -3367,7 +3367,7 @@
       <c r="A20" s="3">
         <v>13</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="10">
         <v>45851</v>
       </c>
       <c r="C20" s="1"/>
@@ -3379,7 +3379,7 @@
       <c r="A21" s="3">
         <v>14</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="10">
         <v>45852</v>
       </c>
       <c r="C21" s="1"/>
@@ -3391,7 +3391,7 @@
       <c r="A22" s="3">
         <v>15</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="10">
         <v>45853</v>
       </c>
       <c r="C22" s="1"/>
@@ -3403,7 +3403,7 @@
       <c r="A23" s="3">
         <v>16</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="10">
         <v>45854</v>
       </c>
       <c r="C23" s="1"/>
@@ -3415,7 +3415,7 @@
       <c r="A24" s="3">
         <v>17</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="10">
         <v>45855</v>
       </c>
       <c r="C24" s="1"/>
@@ -3427,7 +3427,7 @@
       <c r="A25" s="3">
         <v>18</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="10">
         <v>45856</v>
       </c>
       <c r="C25" s="1"/>
@@ -3439,7 +3439,7 @@
       <c r="A26" s="3">
         <v>19</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="10">
         <v>45857</v>
       </c>
       <c r="C26" s="1"/>
@@ -3451,7 +3451,7 @@
       <c r="A27" s="3">
         <v>20</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="10">
         <v>45858</v>
       </c>
       <c r="C27" s="1"/>
@@ -3463,7 +3463,7 @@
       <c r="A28" s="3">
         <v>21</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="10">
         <v>45859</v>
       </c>
       <c r="C28" s="1"/>
@@ -3475,7 +3475,7 @@
       <c r="A29" s="3">
         <v>22</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="10">
         <v>45860</v>
       </c>
       <c r="C29" s="1"/>
@@ -3487,7 +3487,7 @@
       <c r="A30" s="3">
         <v>23</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="10">
         <v>45861</v>
       </c>
       <c r="C30" s="1"/>
@@ -3499,7 +3499,7 @@
       <c r="A31" s="3">
         <v>24</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="10">
         <v>45862</v>
       </c>
       <c r="C31" s="1"/>
@@ -3511,7 +3511,7 @@
       <c r="A32" s="3">
         <v>25</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="10">
         <v>45863</v>
       </c>
       <c r="C32" s="1"/>
@@ -3523,7 +3523,7 @@
       <c r="A33" s="3">
         <v>26</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="10">
         <v>45864</v>
       </c>
       <c r="C33" s="1"/>
@@ -3535,7 +3535,7 @@
       <c r="A34" s="3">
         <v>27</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="10">
         <v>45865</v>
       </c>
       <c r="C34" s="1"/>
@@ -3547,7 +3547,7 @@
       <c r="A35" s="3">
         <v>28</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="10">
         <v>45866</v>
       </c>
       <c r="C35" s="1"/>
@@ -3559,7 +3559,7 @@
       <c r="A36" s="3">
         <v>29</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="10">
         <v>45867</v>
       </c>
       <c r="C36" s="1"/>
@@ -3571,7 +3571,7 @@
       <c r="A37" s="3">
         <v>30</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B37" s="10">
         <v>45868</v>
       </c>
       <c r="C37" s="1"/>
@@ -3580,10 +3580,10 @@
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="21">
+      <c r="A38" s="11">
         <v>31</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B38" s="10">
         <v>45869</v>
       </c>
       <c r="C38" s="1"/>
@@ -3615,8 +3615,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3630,42 +3630,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
@@ -3676,10 +3676,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="5" t="s">
         <v>2</v>
       </c>
@@ -3688,40 +3688,40 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="10">
         <v>45839</v>
       </c>
       <c r="C8" s="1"/>
@@ -3733,7 +3733,7 @@
       <c r="A9" s="3">
         <v>2</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="10">
         <v>45840</v>
       </c>
       <c r="C9" s="1"/>
@@ -3745,7 +3745,7 @@
       <c r="A10" s="3">
         <v>3</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="10">
         <v>45841</v>
       </c>
       <c r="C10" s="1"/>
@@ -3757,7 +3757,7 @@
       <c r="A11" s="3">
         <v>4</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="10">
         <v>45842</v>
       </c>
       <c r="C11" s="1"/>
@@ -3769,7 +3769,7 @@
       <c r="A12" s="3">
         <v>5</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="10">
         <v>45843</v>
       </c>
       <c r="C12" s="1"/>
@@ -3781,7 +3781,7 @@
       <c r="A13" s="3">
         <v>6</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="10">
         <v>45844</v>
       </c>
       <c r="C13" s="1"/>
@@ -3793,7 +3793,7 @@
       <c r="A14" s="3">
         <v>7</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="10">
         <v>45845</v>
       </c>
       <c r="C14" s="1"/>
@@ -3805,7 +3805,7 @@
       <c r="A15" s="3">
         <v>8</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="10">
         <v>45846</v>
       </c>
       <c r="C15" s="1"/>
@@ -3817,7 +3817,7 @@
       <c r="A16" s="3">
         <v>9</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="10">
         <v>45847</v>
       </c>
       <c r="C16" s="1"/>
@@ -3829,7 +3829,7 @@
       <c r="A17" s="3">
         <v>10</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="10">
         <v>45848</v>
       </c>
       <c r="C17" s="1"/>
@@ -3841,7 +3841,7 @@
       <c r="A18" s="3">
         <v>11</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="10">
         <v>45849</v>
       </c>
       <c r="C18" s="1"/>
@@ -3853,7 +3853,7 @@
       <c r="A19" s="3">
         <v>12</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="10">
         <v>45850</v>
       </c>
       <c r="C19" s="1"/>
@@ -3865,7 +3865,7 @@
       <c r="A20" s="3">
         <v>13</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="10">
         <v>45851</v>
       </c>
       <c r="C20" s="1"/>
@@ -3877,7 +3877,7 @@
       <c r="A21" s="3">
         <v>14</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="10">
         <v>45852</v>
       </c>
       <c r="C21" s="1"/>
@@ -3889,7 +3889,7 @@
       <c r="A22" s="3">
         <v>15</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="10">
         <v>45853</v>
       </c>
       <c r="C22" s="1"/>
@@ -3901,7 +3901,7 @@
       <c r="A23" s="3">
         <v>16</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="10">
         <v>45854</v>
       </c>
       <c r="C23" s="1"/>
@@ -3913,7 +3913,7 @@
       <c r="A24" s="3">
         <v>17</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="10">
         <v>45855</v>
       </c>
       <c r="C24" s="1"/>
@@ -3925,7 +3925,7 @@
       <c r="A25" s="3">
         <v>18</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="10">
         <v>45856</v>
       </c>
       <c r="C25" s="1"/>
@@ -3937,7 +3937,7 @@
       <c r="A26" s="3">
         <v>19</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="10">
         <v>45857</v>
       </c>
       <c r="C26" s="1"/>
@@ -3949,7 +3949,7 @@
       <c r="A27" s="3">
         <v>20</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="10">
         <v>45858</v>
       </c>
       <c r="C27" s="1"/>
@@ -3961,7 +3961,7 @@
       <c r="A28" s="3">
         <v>21</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="10">
         <v>45859</v>
       </c>
       <c r="C28" s="1"/>
@@ -3973,7 +3973,7 @@
       <c r="A29" s="3">
         <v>22</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="10">
         <v>45860</v>
       </c>
       <c r="C29" s="1"/>
@@ -3985,7 +3985,7 @@
       <c r="A30" s="3">
         <v>23</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="10">
         <v>45861</v>
       </c>
       <c r="C30" s="1"/>
@@ -3997,7 +3997,7 @@
       <c r="A31" s="3">
         <v>24</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="10">
         <v>45862</v>
       </c>
       <c r="C31" s="1"/>
@@ -4009,7 +4009,7 @@
       <c r="A32" s="3">
         <v>25</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="10">
         <v>45863</v>
       </c>
       <c r="C32" s="1"/>
@@ -4021,7 +4021,7 @@
       <c r="A33" s="3">
         <v>26</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="10">
         <v>45864</v>
       </c>
       <c r="C33" s="1"/>
@@ -4033,7 +4033,7 @@
       <c r="A34" s="3">
         <v>27</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="10">
         <v>45865</v>
       </c>
       <c r="C34" s="1"/>
@@ -4045,7 +4045,7 @@
       <c r="A35" s="3">
         <v>28</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="10">
         <v>45866</v>
       </c>
       <c r="C35" s="1"/>
@@ -4057,7 +4057,7 @@
       <c r="A36" s="3">
         <v>29</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="10">
         <v>45867</v>
       </c>
       <c r="C36" s="1"/>
@@ -4069,7 +4069,7 @@
       <c r="A37" s="3">
         <v>30</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B37" s="10">
         <v>45868</v>
       </c>
       <c r="C37" s="1"/>
@@ -4078,10 +4078,10 @@
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="21">
+      <c r="A38" s="11">
         <v>31</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B38" s="10">
         <v>45869</v>
       </c>
       <c r="C38" s="1"/>
@@ -4101,7 +4101,7 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:E7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.39" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="92" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
@@ -4113,8 +4113,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4128,42 +4128,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
@@ -4174,10 +4174,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="5" t="s">
         <v>2</v>
       </c>
@@ -4186,40 +4186,40 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="10">
         <v>45839</v>
       </c>
       <c r="C8" s="1"/>
@@ -4231,7 +4231,7 @@
       <c r="A9" s="3">
         <v>2</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="10">
         <v>45840</v>
       </c>
       <c r="C9" s="1"/>
@@ -4243,7 +4243,7 @@
       <c r="A10" s="3">
         <v>3</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="10">
         <v>45841</v>
       </c>
       <c r="C10" s="1"/>
@@ -4255,7 +4255,7 @@
       <c r="A11" s="3">
         <v>4</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="10">
         <v>45842</v>
       </c>
       <c r="C11" s="1"/>
@@ -4267,7 +4267,7 @@
       <c r="A12" s="3">
         <v>5</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="10">
         <v>45843</v>
       </c>
       <c r="C12" s="1"/>
@@ -4279,7 +4279,7 @@
       <c r="A13" s="3">
         <v>6</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="10">
         <v>45844</v>
       </c>
       <c r="C13" s="1"/>
@@ -4291,7 +4291,7 @@
       <c r="A14" s="3">
         <v>7</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="10">
         <v>45845</v>
       </c>
       <c r="C14" s="1"/>
@@ -4303,7 +4303,7 @@
       <c r="A15" s="3">
         <v>8</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="10">
         <v>45846</v>
       </c>
       <c r="C15" s="1"/>
@@ -4315,7 +4315,7 @@
       <c r="A16" s="3">
         <v>9</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="10">
         <v>45847</v>
       </c>
       <c r="C16" s="1"/>
@@ -4327,7 +4327,7 @@
       <c r="A17" s="3">
         <v>10</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="10">
         <v>45848</v>
       </c>
       <c r="C17" s="1"/>
@@ -4339,7 +4339,7 @@
       <c r="A18" s="3">
         <v>11</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="10">
         <v>45849</v>
       </c>
       <c r="C18" s="1"/>
@@ -4351,7 +4351,7 @@
       <c r="A19" s="3">
         <v>12</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="10">
         <v>45850</v>
       </c>
       <c r="C19" s="1"/>
@@ -4363,7 +4363,7 @@
       <c r="A20" s="3">
         <v>13</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="10">
         <v>45851</v>
       </c>
       <c r="C20" s="1"/>
@@ -4375,7 +4375,7 @@
       <c r="A21" s="3">
         <v>14</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="10">
         <v>45852</v>
       </c>
       <c r="C21" s="1"/>
@@ -4387,7 +4387,7 @@
       <c r="A22" s="3">
         <v>15</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="10">
         <v>45853</v>
       </c>
       <c r="C22" s="1"/>
@@ -4399,7 +4399,7 @@
       <c r="A23" s="3">
         <v>16</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="10">
         <v>45854</v>
       </c>
       <c r="C23" s="1"/>
@@ -4411,7 +4411,7 @@
       <c r="A24" s="3">
         <v>17</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="10">
         <v>45855</v>
       </c>
       <c r="C24" s="1"/>
@@ -4423,7 +4423,7 @@
       <c r="A25" s="3">
         <v>18</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="10">
         <v>45856</v>
       </c>
       <c r="C25" s="1"/>
@@ -4435,7 +4435,7 @@
       <c r="A26" s="3">
         <v>19</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="10">
         <v>45857</v>
       </c>
       <c r="C26" s="1"/>
@@ -4447,7 +4447,7 @@
       <c r="A27" s="3">
         <v>20</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="10">
         <v>45858</v>
       </c>
       <c r="C27" s="1"/>
@@ -4459,7 +4459,7 @@
       <c r="A28" s="3">
         <v>21</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="10">
         <v>45859</v>
       </c>
       <c r="C28" s="1"/>
@@ -4471,7 +4471,7 @@
       <c r="A29" s="3">
         <v>22</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="10">
         <v>45860</v>
       </c>
       <c r="C29" s="1"/>
@@ -4483,7 +4483,7 @@
       <c r="A30" s="3">
         <v>23</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="10">
         <v>45861</v>
       </c>
       <c r="C30" s="1"/>
@@ -4495,7 +4495,7 @@
       <c r="A31" s="3">
         <v>24</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="10">
         <v>45862</v>
       </c>
       <c r="C31" s="1"/>
@@ -4507,7 +4507,7 @@
       <c r="A32" s="3">
         <v>25</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="10">
         <v>45863</v>
       </c>
       <c r="C32" s="1"/>
@@ -4519,7 +4519,7 @@
       <c r="A33" s="3">
         <v>26</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="10">
         <v>45864</v>
       </c>
       <c r="C33" s="1"/>
@@ -4531,7 +4531,7 @@
       <c r="A34" s="3">
         <v>27</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="10">
         <v>45865</v>
       </c>
       <c r="C34" s="1"/>
@@ -4543,7 +4543,7 @@
       <c r="A35" s="3">
         <v>28</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="10">
         <v>45866</v>
       </c>
       <c r="C35" s="1"/>
@@ -4555,7 +4555,7 @@
       <c r="A36" s="3">
         <v>29</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="10">
         <v>45867</v>
       </c>
       <c r="C36" s="1"/>
@@ -4567,7 +4567,7 @@
       <c r="A37" s="3">
         <v>30</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B37" s="10">
         <v>45868</v>
       </c>
       <c r="C37" s="1"/>
@@ -4576,10 +4576,10 @@
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="21">
+      <c r="A38" s="11">
         <v>31</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B38" s="10">
         <v>45869</v>
       </c>
       <c r="C38" s="1"/>
@@ -4599,7 +4599,7 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:E7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.39" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="95" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
@@ -4611,8 +4611,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4626,42 +4626,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
@@ -4672,10 +4672,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="5" t="s">
         <v>2</v>
       </c>
@@ -4684,40 +4684,40 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="10">
         <v>45839</v>
       </c>
       <c r="C8" s="1"/>
@@ -4729,7 +4729,7 @@
       <c r="A9" s="3">
         <v>2</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="10">
         <v>45840</v>
       </c>
       <c r="C9" s="1"/>
@@ -4741,7 +4741,7 @@
       <c r="A10" s="3">
         <v>3</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="10">
         <v>45841</v>
       </c>
       <c r="C10" s="1"/>
@@ -4753,7 +4753,7 @@
       <c r="A11" s="3">
         <v>4</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="10">
         <v>45842</v>
       </c>
       <c r="C11" s="1"/>
@@ -4765,7 +4765,7 @@
       <c r="A12" s="3">
         <v>5</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="10">
         <v>45843</v>
       </c>
       <c r="C12" s="1"/>
@@ -4777,7 +4777,7 @@
       <c r="A13" s="3">
         <v>6</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="10">
         <v>45844</v>
       </c>
       <c r="C13" s="1"/>
@@ -4789,7 +4789,7 @@
       <c r="A14" s="3">
         <v>7</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="10">
         <v>45845</v>
       </c>
       <c r="C14" s="1"/>
@@ -4801,7 +4801,7 @@
       <c r="A15" s="3">
         <v>8</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="10">
         <v>45846</v>
       </c>
       <c r="C15" s="1"/>
@@ -4813,7 +4813,7 @@
       <c r="A16" s="3">
         <v>9</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="10">
         <v>45847</v>
       </c>
       <c r="C16" s="1"/>
@@ -4825,7 +4825,7 @@
       <c r="A17" s="3">
         <v>10</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="10">
         <v>45848</v>
       </c>
       <c r="C17" s="1"/>
@@ -4837,7 +4837,7 @@
       <c r="A18" s="3">
         <v>11</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="10">
         <v>45849</v>
       </c>
       <c r="C18" s="1"/>
@@ -4849,7 +4849,7 @@
       <c r="A19" s="3">
         <v>12</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="10">
         <v>45850</v>
       </c>
       <c r="C19" s="1"/>
@@ -4861,7 +4861,7 @@
       <c r="A20" s="3">
         <v>13</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="10">
         <v>45851</v>
       </c>
       <c r="C20" s="1"/>
@@ -4873,7 +4873,7 @@
       <c r="A21" s="3">
         <v>14</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="10">
         <v>45852</v>
       </c>
       <c r="C21" s="1"/>
@@ -4885,7 +4885,7 @@
       <c r="A22" s="3">
         <v>15</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="10">
         <v>45853</v>
       </c>
       <c r="C22" s="1"/>
@@ -4897,7 +4897,7 @@
       <c r="A23" s="3">
         <v>16</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="10">
         <v>45854</v>
       </c>
       <c r="C23" s="1"/>
@@ -4909,7 +4909,7 @@
       <c r="A24" s="3">
         <v>17</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="10">
         <v>45855</v>
       </c>
       <c r="C24" s="1"/>
@@ -4921,7 +4921,7 @@
       <c r="A25" s="3">
         <v>18</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="10">
         <v>45856</v>
       </c>
       <c r="C25" s="1"/>
@@ -4933,7 +4933,7 @@
       <c r="A26" s="3">
         <v>19</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="10">
         <v>45857</v>
       </c>
       <c r="C26" s="1"/>
@@ -4945,7 +4945,7 @@
       <c r="A27" s="3">
         <v>20</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="10">
         <v>45858</v>
       </c>
       <c r="C27" s="1"/>
@@ -4957,7 +4957,7 @@
       <c r="A28" s="3">
         <v>21</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="10">
         <v>45859</v>
       </c>
       <c r="C28" s="1"/>
@@ -4969,7 +4969,7 @@
       <c r="A29" s="3">
         <v>22</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="10">
         <v>45860</v>
       </c>
       <c r="C29" s="1"/>
@@ -4981,7 +4981,7 @@
       <c r="A30" s="3">
         <v>23</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="10">
         <v>45861</v>
       </c>
       <c r="C30" s="1"/>
@@ -4993,7 +4993,7 @@
       <c r="A31" s="3">
         <v>24</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="10">
         <v>45862</v>
       </c>
       <c r="C31" s="1"/>
@@ -5005,7 +5005,7 @@
       <c r="A32" s="3">
         <v>25</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="10">
         <v>45863</v>
       </c>
       <c r="C32" s="1"/>
@@ -5017,7 +5017,7 @@
       <c r="A33" s="3">
         <v>26</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="10">
         <v>45864</v>
       </c>
       <c r="C33" s="1"/>
@@ -5029,7 +5029,7 @@
       <c r="A34" s="3">
         <v>27</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="10">
         <v>45865</v>
       </c>
       <c r="C34" s="1"/>
@@ -5041,7 +5041,7 @@
       <c r="A35" s="3">
         <v>28</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="10">
         <v>45866</v>
       </c>
       <c r="C35" s="1"/>
@@ -5053,7 +5053,7 @@
       <c r="A36" s="3">
         <v>29</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="10">
         <v>45867</v>
       </c>
       <c r="C36" s="1"/>
@@ -5065,7 +5065,7 @@
       <c r="A37" s="3">
         <v>30</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B37" s="10">
         <v>45868</v>
       </c>
       <c r="C37" s="1"/>
@@ -5074,10 +5074,10 @@
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="21">
+      <c r="A38" s="11">
         <v>31</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B38" s="10">
         <v>45869</v>
       </c>
       <c r="C38" s="1"/>
@@ -5097,7 +5097,7 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:E7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.39" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="92" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
@@ -5110,8 +5110,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30:I31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5125,42 +5125,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
@@ -5171,10 +5171,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="5" t="s">
         <v>2</v>
       </c>
@@ -5183,40 +5183,40 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="10">
         <v>45839</v>
       </c>
       <c r="C8" s="1"/>
@@ -5228,7 +5228,7 @@
       <c r="A9" s="3">
         <v>2</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="10">
         <v>45840</v>
       </c>
       <c r="C9" s="1"/>
@@ -5240,7 +5240,7 @@
       <c r="A10" s="3">
         <v>3</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="10">
         <v>45841</v>
       </c>
       <c r="C10" s="1"/>
@@ -5252,7 +5252,7 @@
       <c r="A11" s="3">
         <v>4</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="10">
         <v>45842</v>
       </c>
       <c r="C11" s="1"/>
@@ -5264,7 +5264,7 @@
       <c r="A12" s="3">
         <v>5</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="10">
         <v>45843</v>
       </c>
       <c r="C12" s="1"/>
@@ -5276,7 +5276,7 @@
       <c r="A13" s="3">
         <v>6</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="10">
         <v>45844</v>
       </c>
       <c r="C13" s="1"/>
@@ -5288,7 +5288,7 @@
       <c r="A14" s="3">
         <v>7</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="10">
         <v>45845</v>
       </c>
       <c r="C14" s="1"/>
@@ -5300,7 +5300,7 @@
       <c r="A15" s="3">
         <v>8</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="10">
         <v>45846</v>
       </c>
       <c r="C15" s="1"/>
@@ -5312,7 +5312,7 @@
       <c r="A16" s="3">
         <v>9</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="10">
         <v>45847</v>
       </c>
       <c r="C16" s="1"/>
@@ -5324,7 +5324,7 @@
       <c r="A17" s="3">
         <v>10</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="10">
         <v>45848</v>
       </c>
       <c r="C17" s="1"/>
@@ -5336,7 +5336,7 @@
       <c r="A18" s="3">
         <v>11</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="10">
         <v>45849</v>
       </c>
       <c r="C18" s="1"/>
@@ -5348,7 +5348,7 @@
       <c r="A19" s="3">
         <v>12</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="10">
         <v>45850</v>
       </c>
       <c r="C19" s="1"/>
@@ -5360,7 +5360,7 @@
       <c r="A20" s="3">
         <v>13</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="10">
         <v>45851</v>
       </c>
       <c r="C20" s="1"/>
@@ -5372,7 +5372,7 @@
       <c r="A21" s="3">
         <v>14</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="10">
         <v>45852</v>
       </c>
       <c r="C21" s="1"/>
@@ -5384,7 +5384,7 @@
       <c r="A22" s="3">
         <v>15</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="10">
         <v>45853</v>
       </c>
       <c r="C22" s="1"/>
@@ -5396,7 +5396,7 @@
       <c r="A23" s="3">
         <v>16</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="10">
         <v>45854</v>
       </c>
       <c r="C23" s="1"/>
@@ -5408,7 +5408,7 @@
       <c r="A24" s="3">
         <v>17</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="10">
         <v>45855</v>
       </c>
       <c r="C24" s="1"/>
@@ -5420,7 +5420,7 @@
       <c r="A25" s="3">
         <v>18</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="10">
         <v>45856</v>
       </c>
       <c r="C25" s="1"/>
@@ -5432,7 +5432,7 @@
       <c r="A26" s="3">
         <v>19</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="10">
         <v>45857</v>
       </c>
       <c r="C26" s="1"/>
@@ -5444,7 +5444,7 @@
       <c r="A27" s="3">
         <v>20</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="10">
         <v>45858</v>
       </c>
       <c r="C27" s="1"/>
@@ -5456,7 +5456,7 @@
       <c r="A28" s="3">
         <v>21</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="10">
         <v>45859</v>
       </c>
       <c r="C28" s="1"/>
@@ -5468,7 +5468,7 @@
       <c r="A29" s="3">
         <v>22</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="10">
         <v>45860</v>
       </c>
       <c r="C29" s="1"/>
@@ -5480,7 +5480,7 @@
       <c r="A30" s="3">
         <v>23</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="10">
         <v>45861</v>
       </c>
       <c r="C30" s="1"/>
@@ -5492,7 +5492,7 @@
       <c r="A31" s="3">
         <v>24</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="10">
         <v>45862</v>
       </c>
       <c r="C31" s="1"/>
@@ -5504,7 +5504,7 @@
       <c r="A32" s="3">
         <v>25</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="10">
         <v>45863</v>
       </c>
       <c r="C32" s="1"/>
@@ -5516,7 +5516,7 @@
       <c r="A33" s="3">
         <v>26</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="10">
         <v>45864</v>
       </c>
       <c r="C33" s="1"/>
@@ -5528,7 +5528,7 @@
       <c r="A34" s="3">
         <v>27</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="10">
         <v>45865</v>
       </c>
       <c r="C34" s="1"/>
@@ -5540,7 +5540,7 @@
       <c r="A35" s="3">
         <v>28</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="10">
         <v>45866</v>
       </c>
       <c r="C35" s="1"/>
@@ -5552,7 +5552,7 @@
       <c r="A36" s="3">
         <v>29</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="10">
         <v>45867</v>
       </c>
       <c r="C36" s="1"/>
@@ -5564,7 +5564,7 @@
       <c r="A37" s="3">
         <v>30</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B37" s="10">
         <v>45868</v>
       </c>
       <c r="C37" s="1"/>
@@ -5573,10 +5573,10 @@
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="21">
+      <c r="A38" s="11">
         <v>31</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B38" s="10">
         <v>45869</v>
       </c>
       <c r="C38" s="1"/>
@@ -5596,7 +5596,7 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:E7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.39" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="92" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/HR Department/STAFF-ROASTER.xlsx
+++ b/HR Department/STAFF-ROASTER.xlsx
@@ -9,26 +9,26 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet9" sheetId="10" r:id="rId9"/>
-    <sheet name="Sheet10" sheetId="9" r:id="rId10"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet9" sheetId="10" r:id="rId8"/>
+    <sheet name="Sheet10" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet11" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="41">
   <si>
     <t>Nursing Staff</t>
   </si>
@@ -90,9 +90,6 @@
     <t xml:space="preserve">Receptionist </t>
   </si>
   <si>
-    <t>O.T. Assistant</t>
-  </si>
-  <si>
     <t>Bahadur Khan</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>Babu Lal</t>
   </si>
   <si>
-    <t>Devraj Gurjar</t>
-  </si>
-  <si>
     <t>Kishan</t>
   </si>
   <si>
@@ -135,7 +129,28 @@
     <t>Santosh Baiji</t>
   </si>
   <si>
-    <t>July,2025</t>
+    <t>August,2025</t>
+  </si>
+  <si>
+    <t>Out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date </t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Suman Luhar</t>
+  </si>
+  <si>
+    <t>Over Time</t>
+  </si>
+  <si>
+    <t>Sign</t>
   </si>
 </sst>
 </file>
@@ -243,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -278,6 +293,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -307,6 +325,15 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -617,8 +644,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,42 +659,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="A3" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="14"/>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
@@ -678,53 +705,53 @@
         <v>14</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -736,7 +763,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>45840</v>
+        <v>45871</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -748,7 +775,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="10">
-        <v>45841</v>
+        <v>45872</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -760,7 +787,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="10">
-        <v>45842</v>
+        <v>45873</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -772,7 +799,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="10">
-        <v>45843</v>
+        <v>45874</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -784,7 +811,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="10">
-        <v>45844</v>
+        <v>45875</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -796,7 +823,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="10">
-        <v>45845</v>
+        <v>45876</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -808,7 +835,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="10">
-        <v>45846</v>
+        <v>45877</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -820,7 +847,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="10">
-        <v>45847</v>
+        <v>45878</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -832,7 +859,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="10">
-        <v>45848</v>
+        <v>45879</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -844,7 +871,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="10">
-        <v>45849</v>
+        <v>45880</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -856,7 +883,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="10">
-        <v>45850</v>
+        <v>45881</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -868,7 +895,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="10">
-        <v>45851</v>
+        <v>45882</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -880,7 +907,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="10">
-        <v>45852</v>
+        <v>45883</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -892,7 +919,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="10">
-        <v>45853</v>
+        <v>45884</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -904,7 +931,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="10">
-        <v>45854</v>
+        <v>45885</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -916,7 +943,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="10">
-        <v>45855</v>
+        <v>45886</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -928,7 +955,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="10">
-        <v>45856</v>
+        <v>45887</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -940,7 +967,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="10">
-        <v>45857</v>
+        <v>45888</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -952,7 +979,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="10">
-        <v>45858</v>
+        <v>45889</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -964,7 +991,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="10">
-        <v>45859</v>
+        <v>45890</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -976,7 +1003,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="10">
-        <v>45860</v>
+        <v>45891</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -988,7 +1015,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="10">
-        <v>45861</v>
+        <v>45892</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1000,7 +1027,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="10">
-        <v>45862</v>
+        <v>45893</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1012,7 +1039,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="10">
-        <v>45863</v>
+        <v>45894</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1024,7 +1051,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="10">
-        <v>45864</v>
+        <v>45895</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1036,7 +1063,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="10">
-        <v>45865</v>
+        <v>45896</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1048,7 +1075,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="10">
-        <v>45866</v>
+        <v>45897</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1060,7 +1087,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="10">
-        <v>45867</v>
+        <v>45898</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1072,7 +1099,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="10">
-        <v>45868</v>
+        <v>45899</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1084,7 +1111,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="10">
-        <v>45869</v>
+        <v>45900</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1113,505 +1140,165 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" customWidth="1"/>
-    <col min="12" max="12" width="25" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.600000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-    </row>
-    <row r="4" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="17" t="s">
+      <c r="C1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="8" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-    </row>
-    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>45839</v>
-      </c>
+      <c r="D2" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>45840</v>
-      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>3</v>
-      </c>
-      <c r="B10" s="10">
-        <v>45841</v>
-      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>4</v>
-      </c>
-      <c r="B11" s="10">
-        <v>45842</v>
-      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>5</v>
-      </c>
-      <c r="B12" s="10">
-        <v>45843</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>6</v>
-      </c>
-      <c r="B13" s="10">
-        <v>45844</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>7</v>
-      </c>
-      <c r="B14" s="10">
-        <v>45845</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>8</v>
-      </c>
-      <c r="B15" s="10">
-        <v>45846</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>9</v>
-      </c>
-      <c r="B16" s="10">
-        <v>45847</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>10</v>
-      </c>
-      <c r="B17" s="10">
-        <v>45848</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>11</v>
-      </c>
-      <c r="B18" s="10">
-        <v>45849</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>12</v>
-      </c>
-      <c r="B19" s="10">
-        <v>45850</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>13</v>
-      </c>
-      <c r="B20" s="10">
-        <v>45851</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>14</v>
-      </c>
-      <c r="B21" s="10">
-        <v>45852</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>15</v>
-      </c>
-      <c r="B22" s="10">
-        <v>45853</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>16</v>
-      </c>
-      <c r="B23" s="10">
-        <v>45854</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>17</v>
-      </c>
-      <c r="B24" s="10">
-        <v>45855</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>18</v>
-      </c>
-      <c r="B25" s="10">
-        <v>45856</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>19</v>
-      </c>
-      <c r="B26" s="10">
-        <v>45857</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>20</v>
-      </c>
-      <c r="B27" s="10">
-        <v>45858</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>21</v>
-      </c>
-      <c r="B28" s="10">
-        <v>45859</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>22</v>
-      </c>
-      <c r="B29" s="10">
-        <v>45860</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>23</v>
-      </c>
-      <c r="B30" s="10">
-        <v>45861</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>24</v>
-      </c>
-      <c r="B31" s="10">
-        <v>45862</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>25</v>
-      </c>
-      <c r="B32" s="10">
-        <v>45863</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>26</v>
-      </c>
-      <c r="B33" s="10">
-        <v>45864</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>27</v>
-      </c>
-      <c r="B34" s="10">
-        <v>45865</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>28</v>
-      </c>
-      <c r="B35" s="10">
-        <v>45866</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>29</v>
-      </c>
-      <c r="B36" s="10">
-        <v>45867</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>30</v>
-      </c>
-      <c r="B37" s="10">
-        <v>45868</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="11">
-        <v>31</v>
-      </c>
-      <c r="B38" s="10">
-        <v>45869</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="G11" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="E6:E7"/>
+  <mergeCells count="5">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.39" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="92" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.16" right="0.3" top="0.68" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="95" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1622,8 +1309,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1637,42 +1324,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="A3" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="14"/>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1683,53 +1370,53 @@
         <v>14</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1741,7 +1428,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>45840</v>
+        <v>45871</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1753,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="10">
-        <v>45841</v>
+        <v>45872</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1765,7 +1452,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="10">
-        <v>45842</v>
+        <v>45873</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1777,7 +1464,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="10">
-        <v>45843</v>
+        <v>45874</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1789,7 +1476,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="10">
-        <v>45844</v>
+        <v>45875</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1801,7 +1488,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="10">
-        <v>45845</v>
+        <v>45876</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1813,7 +1500,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="10">
-        <v>45846</v>
+        <v>45877</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1825,7 +1512,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="10">
-        <v>45847</v>
+        <v>45878</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1837,7 +1524,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="10">
-        <v>45848</v>
+        <v>45879</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1849,7 +1536,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="10">
-        <v>45849</v>
+        <v>45880</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1861,7 +1548,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="10">
-        <v>45850</v>
+        <v>45881</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1873,7 +1560,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="10">
-        <v>45851</v>
+        <v>45882</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1885,7 +1572,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="10">
-        <v>45852</v>
+        <v>45883</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1897,7 +1584,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="10">
-        <v>45853</v>
+        <v>45884</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1909,7 +1596,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="10">
-        <v>45854</v>
+        <v>45885</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1921,7 +1608,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="10">
-        <v>45855</v>
+        <v>45886</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1933,7 +1620,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="10">
-        <v>45856</v>
+        <v>45887</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1945,7 +1632,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="10">
-        <v>45857</v>
+        <v>45888</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1957,7 +1644,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="10">
-        <v>45858</v>
+        <v>45889</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1969,7 +1656,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="10">
-        <v>45859</v>
+        <v>45890</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1981,7 +1668,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="10">
-        <v>45860</v>
+        <v>45891</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1993,7 +1680,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="10">
-        <v>45861</v>
+        <v>45892</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -2005,7 +1692,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="10">
-        <v>45862</v>
+        <v>45893</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2017,7 +1704,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="10">
-        <v>45863</v>
+        <v>45894</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2029,7 +1716,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="10">
-        <v>45864</v>
+        <v>45895</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2041,7 +1728,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="10">
-        <v>45865</v>
+        <v>45896</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -2053,7 +1740,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="10">
-        <v>45866</v>
+        <v>45897</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -2065,7 +1752,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="10">
-        <v>45867</v>
+        <v>45898</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -2077,7 +1764,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="10">
-        <v>45868</v>
+        <v>45899</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -2089,7 +1776,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="10">
-        <v>45869</v>
+        <v>45900</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2120,8 +1807,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2135,42 +1822,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="A3" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="14"/>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
@@ -2181,53 +1868,53 @@
         <v>14</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2239,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>45840</v>
+        <v>45871</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2251,7 +1938,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="10">
-        <v>45841</v>
+        <v>45872</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2263,7 +1950,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="10">
-        <v>45842</v>
+        <v>45873</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2275,7 +1962,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="10">
-        <v>45843</v>
+        <v>45874</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2287,7 +1974,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="10">
-        <v>45844</v>
+        <v>45875</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2299,7 +1986,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="10">
-        <v>45845</v>
+        <v>45876</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2311,7 +1998,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="10">
-        <v>45846</v>
+        <v>45877</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2323,7 +2010,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="10">
-        <v>45847</v>
+        <v>45878</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2335,7 +2022,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="10">
-        <v>45848</v>
+        <v>45879</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2347,7 +2034,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="10">
-        <v>45849</v>
+        <v>45880</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2359,7 +2046,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="10">
-        <v>45850</v>
+        <v>45881</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2371,7 +2058,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="10">
-        <v>45851</v>
+        <v>45882</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2383,7 +2070,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="10">
-        <v>45852</v>
+        <v>45883</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2395,7 +2082,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="10">
-        <v>45853</v>
+        <v>45884</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2407,7 +2094,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="10">
-        <v>45854</v>
+        <v>45885</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2419,7 +2106,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="10">
-        <v>45855</v>
+        <v>45886</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2431,7 +2118,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="10">
-        <v>45856</v>
+        <v>45887</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2443,7 +2130,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="10">
-        <v>45857</v>
+        <v>45888</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -2455,7 +2142,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="10">
-        <v>45858</v>
+        <v>45889</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2467,7 +2154,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="10">
-        <v>45859</v>
+        <v>45890</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2479,7 +2166,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="10">
-        <v>45860</v>
+        <v>45891</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2491,7 +2178,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="10">
-        <v>45861</v>
+        <v>45892</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -2503,7 +2190,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="10">
-        <v>45862</v>
+        <v>45893</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2515,7 +2202,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="10">
-        <v>45863</v>
+        <v>45894</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2527,7 +2214,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="10">
-        <v>45864</v>
+        <v>45895</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2539,7 +2226,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="10">
-        <v>45865</v>
+        <v>45896</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -2551,7 +2238,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="10">
-        <v>45866</v>
+        <v>45897</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -2563,7 +2250,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="10">
-        <v>45867</v>
+        <v>45898</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -2575,7 +2262,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="10">
-        <v>45868</v>
+        <v>45899</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -2587,7 +2274,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="10">
-        <v>45869</v>
+        <v>45900</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2618,8 +2305,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2633,42 +2320,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="A3" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="14"/>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
@@ -2679,53 +2366,53 @@
         <v>14</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2737,7 +2424,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>45840</v>
+        <v>45871</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2749,7 +2436,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="10">
-        <v>45841</v>
+        <v>45872</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2761,7 +2448,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="10">
-        <v>45842</v>
+        <v>45873</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2773,7 +2460,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="10">
-        <v>45843</v>
+        <v>45874</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2785,7 +2472,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="10">
-        <v>45844</v>
+        <v>45875</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2797,7 +2484,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="10">
-        <v>45845</v>
+        <v>45876</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2809,7 +2496,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="10">
-        <v>45846</v>
+        <v>45877</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2821,7 +2508,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="10">
-        <v>45847</v>
+        <v>45878</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2833,7 +2520,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="10">
-        <v>45848</v>
+        <v>45879</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2845,7 +2532,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="10">
-        <v>45849</v>
+        <v>45880</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2857,7 +2544,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="10">
-        <v>45850</v>
+        <v>45881</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2869,7 +2556,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="10">
-        <v>45851</v>
+        <v>45882</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2881,7 +2568,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="10">
-        <v>45852</v>
+        <v>45883</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2893,7 +2580,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="10">
-        <v>45853</v>
+        <v>45884</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2905,7 +2592,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="10">
-        <v>45854</v>
+        <v>45885</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2917,7 +2604,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="10">
-        <v>45855</v>
+        <v>45886</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2929,7 +2616,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="10">
-        <v>45856</v>
+        <v>45887</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2941,7 +2628,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="10">
-        <v>45857</v>
+        <v>45888</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -2953,7 +2640,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="10">
-        <v>45858</v>
+        <v>45889</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2965,7 +2652,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="10">
-        <v>45859</v>
+        <v>45890</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2977,7 +2664,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="10">
-        <v>45860</v>
+        <v>45891</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2989,7 +2676,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="10">
-        <v>45861</v>
+        <v>45892</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3001,7 +2688,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="10">
-        <v>45862</v>
+        <v>45893</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -3013,7 +2700,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="10">
-        <v>45863</v>
+        <v>45894</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -3025,7 +2712,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="10">
-        <v>45864</v>
+        <v>45895</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -3037,7 +2724,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="10">
-        <v>45865</v>
+        <v>45896</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -3049,7 +2736,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="10">
-        <v>45866</v>
+        <v>45897</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -3061,7 +2748,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="10">
-        <v>45867</v>
+        <v>45898</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -3073,7 +2760,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="10">
-        <v>45868</v>
+        <v>45899</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -3085,7 +2772,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="10">
-        <v>45869</v>
+        <v>45900</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -3112,13 +2799,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3132,42 +2818,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="A3" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
@@ -3178,53 +2864,53 @@
         <v>14</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="12"/>
+      <c r="C5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13"/>
       <c r="E5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3236,7 +2922,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>45840</v>
+        <v>45871</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3248,7 +2934,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="10">
-        <v>45841</v>
+        <v>45872</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3260,7 +2946,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="10">
-        <v>45842</v>
+        <v>45873</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -3272,7 +2958,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="10">
-        <v>45843</v>
+        <v>45874</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -3284,7 +2970,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="10">
-        <v>45844</v>
+        <v>45875</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -3296,7 +2982,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="10">
-        <v>45845</v>
+        <v>45876</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -3308,7 +2994,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="10">
-        <v>45846</v>
+        <v>45877</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -3320,7 +3006,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="10">
-        <v>45847</v>
+        <v>45878</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -3332,7 +3018,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="10">
-        <v>45848</v>
+        <v>45879</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -3344,7 +3030,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="10">
-        <v>45849</v>
+        <v>45880</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -3356,7 +3042,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="10">
-        <v>45850</v>
+        <v>45881</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -3368,7 +3054,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="10">
-        <v>45851</v>
+        <v>45882</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -3380,7 +3066,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="10">
-        <v>45852</v>
+        <v>45883</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -3392,7 +3078,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="10">
-        <v>45853</v>
+        <v>45884</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -3404,7 +3090,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="10">
-        <v>45854</v>
+        <v>45885</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -3416,7 +3102,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="10">
-        <v>45855</v>
+        <v>45886</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3428,7 +3114,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="10">
-        <v>45856</v>
+        <v>45887</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3440,7 +3126,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="10">
-        <v>45857</v>
+        <v>45888</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3452,7 +3138,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="10">
-        <v>45858</v>
+        <v>45889</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3464,7 +3150,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="10">
-        <v>45859</v>
+        <v>45890</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3476,7 +3162,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="10">
-        <v>45860</v>
+        <v>45891</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3488,7 +3174,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="10">
-        <v>45861</v>
+        <v>45892</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3500,7 +3186,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="10">
-        <v>45862</v>
+        <v>45893</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -3512,7 +3198,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="10">
-        <v>45863</v>
+        <v>45894</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -3524,7 +3210,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="10">
-        <v>45864</v>
+        <v>45895</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -3536,7 +3222,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="10">
-        <v>45865</v>
+        <v>45896</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -3548,7 +3234,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="10">
-        <v>45866</v>
+        <v>45897</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -3560,7 +3246,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="10">
-        <v>45867</v>
+        <v>45898</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -3572,7 +3258,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="10">
-        <v>45868</v>
+        <v>45899</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -3584,505 +3270,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="10">
-        <v>45869</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:E7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="92" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:F38"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-    </row>
-    <row r="4" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-    </row>
-    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>45839</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>45840</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>3</v>
-      </c>
-      <c r="B10" s="10">
-        <v>45841</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>4</v>
-      </c>
-      <c r="B11" s="10">
-        <v>45842</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>5</v>
-      </c>
-      <c r="B12" s="10">
-        <v>45843</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>6</v>
-      </c>
-      <c r="B13" s="10">
-        <v>45844</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>7</v>
-      </c>
-      <c r="B14" s="10">
-        <v>45845</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>8</v>
-      </c>
-      <c r="B15" s="10">
-        <v>45846</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>9</v>
-      </c>
-      <c r="B16" s="10">
-        <v>45847</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>10</v>
-      </c>
-      <c r="B17" s="10">
-        <v>45848</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>11</v>
-      </c>
-      <c r="B18" s="10">
-        <v>45849</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>12</v>
-      </c>
-      <c r="B19" s="10">
-        <v>45850</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>13</v>
-      </c>
-      <c r="B20" s="10">
-        <v>45851</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>14</v>
-      </c>
-      <c r="B21" s="10">
-        <v>45852</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>15</v>
-      </c>
-      <c r="B22" s="10">
-        <v>45853</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>16</v>
-      </c>
-      <c r="B23" s="10">
-        <v>45854</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>17</v>
-      </c>
-      <c r="B24" s="10">
-        <v>45855</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>18</v>
-      </c>
-      <c r="B25" s="10">
-        <v>45856</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>19</v>
-      </c>
-      <c r="B26" s="10">
-        <v>45857</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>20</v>
-      </c>
-      <c r="B27" s="10">
-        <v>45858</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>21</v>
-      </c>
-      <c r="B28" s="10">
-        <v>45859</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>22</v>
-      </c>
-      <c r="B29" s="10">
-        <v>45860</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>23</v>
-      </c>
-      <c r="B30" s="10">
-        <v>45861</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>24</v>
-      </c>
-      <c r="B31" s="10">
-        <v>45862</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>25</v>
-      </c>
-      <c r="B32" s="10">
-        <v>45863</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>26</v>
-      </c>
-      <c r="B33" s="10">
-        <v>45864</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>27</v>
-      </c>
-      <c r="B34" s="10">
-        <v>45865</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>28</v>
-      </c>
-      <c r="B35" s="10">
-        <v>45866</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>29</v>
-      </c>
-      <c r="B36" s="10">
-        <v>45867</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>30</v>
-      </c>
-      <c r="B37" s="10">
-        <v>45868</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="11">
-        <v>31</v>
-      </c>
-      <c r="B38" s="10">
-        <v>45869</v>
+        <v>45900</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -4106,15 +3294,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4128,42 +3316,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="A3" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="14"/>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
@@ -4174,53 +3362,53 @@
         <v>14</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="12"/>
+      <c r="C5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="13"/>
       <c r="E5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -4232,7 +3420,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>45840</v>
+        <v>45871</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -4244,7 +3432,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="10">
-        <v>45841</v>
+        <v>45872</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -4256,7 +3444,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="10">
-        <v>45842</v>
+        <v>45873</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -4268,7 +3456,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="10">
-        <v>45843</v>
+        <v>45874</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -4280,7 +3468,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="10">
-        <v>45844</v>
+        <v>45875</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -4292,7 +3480,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="10">
-        <v>45845</v>
+        <v>45876</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -4304,7 +3492,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="10">
-        <v>45846</v>
+        <v>45877</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -4316,7 +3504,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="10">
-        <v>45847</v>
+        <v>45878</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -4328,7 +3516,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="10">
-        <v>45848</v>
+        <v>45879</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -4340,7 +3528,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="10">
-        <v>45849</v>
+        <v>45880</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -4352,7 +3540,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="10">
-        <v>45850</v>
+        <v>45881</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -4364,7 +3552,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="10">
-        <v>45851</v>
+        <v>45882</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -4376,7 +3564,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="10">
-        <v>45852</v>
+        <v>45883</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -4388,7 +3576,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="10">
-        <v>45853</v>
+        <v>45884</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -4400,7 +3588,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="10">
-        <v>45854</v>
+        <v>45885</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -4412,7 +3600,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="10">
-        <v>45855</v>
+        <v>45886</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -4424,7 +3612,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="10">
-        <v>45856</v>
+        <v>45887</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -4436,7 +3624,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="10">
-        <v>45857</v>
+        <v>45888</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -4448,7 +3636,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="10">
-        <v>45858</v>
+        <v>45889</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -4460,7 +3648,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="10">
-        <v>45859</v>
+        <v>45890</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -4472,7 +3660,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="10">
-        <v>45860</v>
+        <v>45891</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -4484,7 +3672,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="10">
-        <v>45861</v>
+        <v>45892</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -4496,7 +3684,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="10">
-        <v>45862</v>
+        <v>45893</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -4508,7 +3696,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="10">
-        <v>45863</v>
+        <v>45894</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -4520,7 +3708,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="10">
-        <v>45864</v>
+        <v>45895</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -4532,7 +3720,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="10">
-        <v>45865</v>
+        <v>45896</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -4544,7 +3732,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="10">
-        <v>45866</v>
+        <v>45897</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -4556,7 +3744,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="10">
-        <v>45867</v>
+        <v>45898</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -4568,7 +3756,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="10">
-        <v>45868</v>
+        <v>45899</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -4580,7 +3768,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="10">
-        <v>45869</v>
+        <v>45900</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -4604,15 +3792,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4626,42 +3814,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="A3" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="18"/>
+      <c r="C4" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="19"/>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
@@ -4672,53 +3860,53 @@
         <v>14</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -4730,7 +3918,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>45840</v>
+        <v>45871</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -4742,7 +3930,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="10">
-        <v>45841</v>
+        <v>45872</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -4754,7 +3942,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="10">
-        <v>45842</v>
+        <v>45873</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -4766,7 +3954,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="10">
-        <v>45843</v>
+        <v>45874</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -4778,7 +3966,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="10">
-        <v>45844</v>
+        <v>45875</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -4790,7 +3978,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="10">
-        <v>45845</v>
+        <v>45876</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -4802,7 +3990,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="10">
-        <v>45846</v>
+        <v>45877</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -4814,7 +4002,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="10">
-        <v>45847</v>
+        <v>45878</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -4826,7 +4014,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="10">
-        <v>45848</v>
+        <v>45879</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -4838,7 +4026,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="10">
-        <v>45849</v>
+        <v>45880</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -4850,7 +4038,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="10">
-        <v>45850</v>
+        <v>45881</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -4862,7 +4050,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="10">
-        <v>45851</v>
+        <v>45882</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -4874,7 +4062,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="10">
-        <v>45852</v>
+        <v>45883</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -4886,7 +4074,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="10">
-        <v>45853</v>
+        <v>45884</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -4898,7 +4086,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="10">
-        <v>45854</v>
+        <v>45885</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -4910,7 +4098,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="10">
-        <v>45855</v>
+        <v>45886</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -4922,7 +4110,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="10">
-        <v>45856</v>
+        <v>45887</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -4934,7 +4122,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="10">
-        <v>45857</v>
+        <v>45888</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -4946,7 +4134,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="10">
-        <v>45858</v>
+        <v>45889</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -4958,7 +4146,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="10">
-        <v>45859</v>
+        <v>45890</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -4970,7 +4158,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="10">
-        <v>45860</v>
+        <v>45891</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -4982,7 +4170,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="10">
-        <v>45861</v>
+        <v>45892</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -4994,7 +4182,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="10">
-        <v>45862</v>
+        <v>45893</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -5006,7 +4194,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="10">
-        <v>45863</v>
+        <v>45894</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -5018,7 +4206,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="10">
-        <v>45864</v>
+        <v>45895</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -5030,7 +4218,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="10">
-        <v>45865</v>
+        <v>45896</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -5042,7 +4230,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="10">
-        <v>45866</v>
+        <v>45897</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -5054,7 +4242,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="10">
-        <v>45867</v>
+        <v>45898</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -5066,7 +4254,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="10">
-        <v>45868</v>
+        <v>45899</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -5078,7 +4266,506 @@
         <v>31</v>
       </c>
       <c r="B38" s="10">
-        <v>45869</v>
+        <v>45900</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:E7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.39" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="92" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F38"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>45870</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>45871</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>3</v>
+      </c>
+      <c r="B10" s="10">
+        <v>45872</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>4</v>
+      </c>
+      <c r="B11" s="10">
+        <v>45873</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>5</v>
+      </c>
+      <c r="B12" s="10">
+        <v>45874</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>6</v>
+      </c>
+      <c r="B13" s="10">
+        <v>45875</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>7</v>
+      </c>
+      <c r="B14" s="10">
+        <v>45876</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>8</v>
+      </c>
+      <c r="B15" s="10">
+        <v>45877</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>9</v>
+      </c>
+      <c r="B16" s="10">
+        <v>45878</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>10</v>
+      </c>
+      <c r="B17" s="10">
+        <v>45879</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>11</v>
+      </c>
+      <c r="B18" s="10">
+        <v>45880</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>12</v>
+      </c>
+      <c r="B19" s="10">
+        <v>45881</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>13</v>
+      </c>
+      <c r="B20" s="10">
+        <v>45882</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>14</v>
+      </c>
+      <c r="B21" s="10">
+        <v>45883</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>15</v>
+      </c>
+      <c r="B22" s="10">
+        <v>45884</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>16</v>
+      </c>
+      <c r="B23" s="10">
+        <v>45885</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>17</v>
+      </c>
+      <c r="B24" s="10">
+        <v>45886</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>18</v>
+      </c>
+      <c r="B25" s="10">
+        <v>45887</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>19</v>
+      </c>
+      <c r="B26" s="10">
+        <v>45888</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>20</v>
+      </c>
+      <c r="B27" s="10">
+        <v>45889</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>21</v>
+      </c>
+      <c r="B28" s="10">
+        <v>45890</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>22</v>
+      </c>
+      <c r="B29" s="10">
+        <v>45891</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>23</v>
+      </c>
+      <c r="B30" s="10">
+        <v>45892</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>24</v>
+      </c>
+      <c r="B31" s="10">
+        <v>45893</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>25</v>
+      </c>
+      <c r="B32" s="10">
+        <v>45894</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>26</v>
+      </c>
+      <c r="B33" s="10">
+        <v>45895</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>27</v>
+      </c>
+      <c r="B34" s="10">
+        <v>45896</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>28</v>
+      </c>
+      <c r="B35" s="10">
+        <v>45897</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>29</v>
+      </c>
+      <c r="B36" s="10">
+        <v>45898</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>30</v>
+      </c>
+      <c r="B37" s="10">
+        <v>45899</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>31</v>
+      </c>
+      <c r="B38" s="10">
+        <v>45900</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -5105,13 +4792,12 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5122,102 +4808,110 @@
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
     <col min="6" max="6" width="27.7109375" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" customWidth="1"/>
+    <col min="12" max="12" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:6" ht="18.600000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-    </row>
-    <row r="4" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="5" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="F4" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="12"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="13"/>
       <c r="E5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -5229,7 +4923,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>45840</v>
+        <v>45871</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -5241,7 +4935,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="10">
-        <v>45841</v>
+        <v>45872</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -5253,7 +4947,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="10">
-        <v>45842</v>
+        <v>45873</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -5265,7 +4959,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="10">
-        <v>45843</v>
+        <v>45874</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -5277,7 +4971,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="10">
-        <v>45844</v>
+        <v>45875</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -5289,7 +4983,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="10">
-        <v>45845</v>
+        <v>45876</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -5301,7 +4995,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="10">
-        <v>45846</v>
+        <v>45877</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -5313,7 +5007,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="10">
-        <v>45847</v>
+        <v>45878</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -5325,7 +5019,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="10">
-        <v>45848</v>
+        <v>45879</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -5337,7 +5031,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="10">
-        <v>45849</v>
+        <v>45880</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -5349,7 +5043,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="10">
-        <v>45850</v>
+        <v>45881</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -5361,7 +5055,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="10">
-        <v>45851</v>
+        <v>45882</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -5373,7 +5067,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="10">
-        <v>45852</v>
+        <v>45883</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -5385,7 +5079,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="10">
-        <v>45853</v>
+        <v>45884</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -5397,7 +5091,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="10">
-        <v>45854</v>
+        <v>45885</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -5409,7 +5103,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="10">
-        <v>45855</v>
+        <v>45886</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -5421,7 +5115,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="10">
-        <v>45856</v>
+        <v>45887</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -5433,7 +5127,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="10">
-        <v>45857</v>
+        <v>45888</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -5445,7 +5139,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="10">
-        <v>45858</v>
+        <v>45889</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -5457,7 +5151,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="10">
-        <v>45859</v>
+        <v>45890</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -5469,7 +5163,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="10">
-        <v>45860</v>
+        <v>45891</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -5481,7 +5175,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="10">
-        <v>45861</v>
+        <v>45892</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -5493,7 +5187,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="10">
-        <v>45862</v>
+        <v>45893</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -5505,7 +5199,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="10">
-        <v>45863</v>
+        <v>45894</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -5517,7 +5211,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="10">
-        <v>45864</v>
+        <v>45895</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -5529,7 +5223,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="10">
-        <v>45865</v>
+        <v>45896</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -5541,7 +5235,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="10">
-        <v>45866</v>
+        <v>45897</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -5553,7 +5247,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="10">
-        <v>45867</v>
+        <v>45898</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -5565,7 +5259,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="10">
-        <v>45868</v>
+        <v>45899</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -5577,7 +5271,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="10">
-        <v>45869</v>
+        <v>45900</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -5585,15 +5279,16 @@
       <c r="F38" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C4:D4"/>
+  <mergeCells count="10">
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.39" bottom="0.75" header="0.3" footer="0.3"/>
